--- a/genshinuid_adv/Genshin All Char.xlsx
+++ b/genshinuid_adv/Genshin All Char.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="395">
   <si>
     <t>角色</t>
   </si>
@@ -177,7 +177,7 @@
     <t>不灭月华</t>
   </si>
   <si>
-    <t>试做金珀</t>
+    <t>试作金珀</t>
   </si>
   <si>
     <t>讨龙英杰谭</t>
@@ -282,10 +282,10 @@
     <t>天空之傲</t>
   </si>
   <si>
-    <t>试做古华</t>
-  </si>
-  <si>
-    <t>旅行者（风）</t>
+    <t>试作古华</t>
+  </si>
+  <si>
+    <t>旅行者风</t>
   </si>
   <si>
     <t>对初始角色空和荧两兄妹的统称。根据玩家选择，自机一方将踏上寻找血亲之路，另一方将隶属于深渊教团。
@@ -293,7 +293,7 @@
 绰号很多，在国内空常称为龙哥，荧常称为爷</t>
   </si>
   <si>
-    <t>旅行者（岩）</t>
+    <t>旅行者岩</t>
   </si>
   <si>
     <t>北斗</t>
@@ -377,9 +377,6 @@
 人送外号卢老爷/卢姥爷，正义人/正E人/挣亿人，E键三连真君，卢锅巴</t>
   </si>
   <si>
-    <t>试作古华</t>
-  </si>
-  <si>
     <t>雨裁</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
   </si>
   <si>
     <t>证誓之明瞳</t>
-  </si>
-  <si>
-    <t>试作金珀</t>
   </si>
   <si>
     <t>刻晴</t>
@@ -450,7 +444,7 @@
   </si>
   <si>
     <t>又名巴巴托斯，尘世七执政之一的风神，
-唯一任次七神暨男神之二，喜食苹果酒，对猫毛过敏，
+唯一任次七神暨男神之二，旅行者在提瓦特遇到的第一位尘世七执政；喜食苹果酒，对猫毛过敏，
 身份吟游诗人，四风守护的领导人，米哈游画女硬说男的典范（误），
 人送外号卖唱的，摸鱼神，诶嘿摸鱼真君/不务正业真君，巴巴脱丝</t>
   </si>
@@ -470,9 +464,9 @@
     <t>可莉</t>
   </si>
   <si>
-    <t>玩家的宝贝心头肉，「蒙德最强战力」传说，
+    <t>「蒙德最强战力」传说，玩家的宝贝心头肉；
 身份西风骑士团火花骑士，艾莉丝的女儿，羽球节指定羽球（误），西风骑士团禁闭室常客（误），
-人送外号放火烧山真君，火化骑士，小太阳</t>
+人送外号放火烧山真君，火化骑士（误），小太阳</t>
   </si>
   <si>
     <t>嘟嘟可故事集</t>
@@ -496,6 +490,9 @@
     <t>破魔之弓</t>
   </si>
   <si>
+    <t>若水</t>
+  </si>
+  <si>
     <t>迪奥娜</t>
   </si>
   <si>
@@ -518,9 +515,9 @@
     <t>黑缨枪</t>
   </si>
   <si>
-    <t>又名摩拉克斯，尘世七执政之一的岩神，
-唯一任次七神暨男神之二，厌恶水产品，
-身份「往生堂」客卿，岩王帝君/岩王爷，众仙之祖，听书人，
+    <t>又名摩拉克斯，尘世七执政之一的岩神；
+唯一任次七神暨男神之二；厌恶水产品，
+身份岩王帝君/岩王爷，众仙之祖，「往生堂」客卿，听书人；
 外号帝君，不带钱包真君</t>
   </si>
   <si>
@@ -559,7 +556,7 @@
 人送外号椰羊，王小美，咕噜下山真君/噎羊</t>
   </si>
   <si>
-    <t>试做澹月</t>
+    <t>试作澹月</t>
   </si>
   <si>
     <t>飞雷之振弦</t>
@@ -654,7 +651,7 @@
 人送外号叶天帝，稻妻飞行冠军，精神璃月人（误）</t>
   </si>
   <si>
-    <t>旅行者（雷）</t>
+    <t>旅行者雷</t>
   </si>
   <si>
     <t>圣遗物选择上，充能词条比套装效果重要；</t>
@@ -724,7 +721,7 @@
     <t>此身，代表巴尔泽布，尘世七执政之一的雷神；
 身世复杂，可公开身份「御建鸣神主尊大御所大人」；
 似乎对甜食感兴趣；
-人送外号煮饭婆，雷军（误），土妹子</t>
+常称呼为雷神，人送外号煮饭婆，雷军（误），土妹子</t>
   </si>
   <si>
     <t>九条裟罗</t>
@@ -747,7 +744,7 @@
   </si>
   <si>
     <t>海祈岛「现人神巫女」暨军师；
-又名观赏鱼，千花书记</t>
+又名观赏鱼，千花书记（误）</t>
   </si>
   <si>
     <t>托马</t>
@@ -795,7 +792,7 @@
     <t>云堇</t>
   </si>
   <si>
-    <t>璃月云翰社当家；
+    <t>璃月云翰社当家少女；
 人送外号自走三彩团子（误）</t>
   </si>
   <si>
@@ -806,7 +803,10 @@
   </si>
   <si>
     <t>身世复杂，可公开身份为鸣神大社宫司和八重堂编辑；
-人送外号尘歌狐，屑狐狸，雷丘丘萨满</t>
+人送外号屑狐狸，雷丘丘萨满，尘歌狐</t>
+  </si>
+  <si>
+    <t>饰金之梦</t>
   </si>
   <si>
     <t>神里绫人</t>
@@ -823,9 +823,6 @@
   </si>
   <si>
     <t>夜兰</t>
-  </si>
-  <si>
-    <t>若水</t>
   </si>
   <si>
     <t>按伤害最优原则，除开专武选精5曚云/绝弦；
@@ -869,75 +866,127 @@
     <t>鹿野院平藏</t>
   </si>
   <si>
-    <t>天领奉行的少年侦探，提瓦特第一个实装的男法器角色，鹿野奈奈的表弟，人送外号“鹿野符华”（大误）</t>
-  </si>
-  <si>
-    <t>旅行者（草）
+    <t>天领奉行的少年侦探，提瓦特第一个实装的男法器角色；
+鸣神大社npc鹿野奈奈的表弟，人送外号“鹿野符华”（大误）</t>
+  </si>
+  <si>
+    <t>旅行者草</t>
+  </si>
+  <si>
+    <t>原木刀</t>
+  </si>
+  <si>
+    <t>深林的记忆</t>
+  </si>
+  <si>
+    <t>对初始角色空和荧两兄妹的统称。根据玩家选择，自机一方将踏上寻找血亲之路，另一方将隶属于深渊教团。
+身份：外来的异乡人，小可爱，进化出智商的丘丘人，荣誉骑士，大黄金钓鱼手，臭保底人（误），等等；
+绰号很多，在国内空常称为龙哥，荧常称为爷；</t>
+  </si>
+  <si>
+    <t>充能、精通词条优先选择</t>
+  </si>
+  <si>
+    <t>提纳里</t>
+  </si>
+  <si>
+    <t>猎人之径</t>
+  </si>
+  <si>
+    <t>苍翠绿弓</t>
+  </si>
+  <si>
+    <t>精通植物学，须弥教令院「生论派」的学者，现担任道成林巡林官一职，是柯莱的师傅；人送外号提子，无穷小提狐主任，（提纳）驴（大误）</t>
+  </si>
+  <si>
+    <t>柯莱</t>
+  </si>
+  <si>
+    <t>道成林见习巡林员，跟从提纳里，为人热情但内向，与蒙德西风骑士团（尤其是安柏）存在某种羁绊；</t>
+  </si>
+  <si>
+    <t>原神官方漫画登场角色，「冬夜愚戏」pv出场角色；</t>
+  </si>
+  <si>
+    <t>又称须弥飞行冠军</t>
+  </si>
+  <si>
+    <t>多莉</t>
+  </si>
+  <si>
+    <t>请注意，此角色（Dori）与克隆羊多莉（Dolly）没有任何关联；迪奥娜打败蒙德酒业赚了很多很多钱，便成了多莉的模样（大误），
+实际本人是须弥「最有门路」的大商人，似乎艾莉丝为其供货商；</t>
+  </si>
+  <si>
+    <t>外号奸商（误），钟剑拯救者（误），跌丝袜，帕朵菲莉斯（大误）</t>
+  </si>
+  <si>
+    <t>森林王剑</t>
+  </si>
+  <si>
+    <t>钟剑</t>
+  </si>
+  <si>
+    <t>妮露
 （待测试）</t>
   </si>
   <si>
-    <t>3.0版本实装角色</t>
-  </si>
-  <si>
-    <t>提纳里
+    <t>圣显之钥</t>
+  </si>
+  <si>
+    <t>英文名Nilou，少女，五星水单手剑；在须弥追求舞蹈，艺术和演出的舞女；</t>
+  </si>
+  <si>
+    <t>3.1版本实装角色；</t>
+  </si>
+  <si>
+    <t>人送外号红牛（误）；</t>
+  </si>
+  <si>
+    <t>满命前的圣遗物建议死堆生命</t>
+  </si>
+  <si>
+    <t>赛诺
 （待测试）</t>
   </si>
   <si>
-    <t>英文名Tighnari，少年，五星草弓</t>
-  </si>
-  <si>
-    <t>柯莱
+    <t>赤沙之杖</t>
+  </si>
+  <si>
+    <t>英文名Cyno，少年，五星雷枪，原神官方漫画登场角色暨原神足迹PV立绘公开角色之一，3.1版本实装；穿着清凉的须弥大风纪官；</t>
+  </si>
+  <si>
+    <t>代称“恋爱循环”（冷笑话）：せーの（see no）~</t>
+  </si>
+  <si>
+    <t>仅推荐满命后4如雷</t>
+  </si>
+  <si>
+    <t>坎蒂丝
 （待测试）</t>
   </si>
   <si>
-    <t>英文名Collei，少女，四星草弓</t>
-  </si>
-  <si>
-    <t>原神官方漫画登场角色</t>
-  </si>
-  <si>
-    <t>3.0版本实装角色，【存疑】3.0版本官方赠送角色</t>
-  </si>
-  <si>
-    <t>多莉
-（待测试）</t>
-  </si>
-  <si>
-    <t>英文名Dori （全名Dori Sangemah Bay），萝莉，四星雷大剑</t>
-  </si>
-  <si>
-    <t>白术
+    <t>英文名Candace，曾用代号“Cleo/Kandake”，成女，四星水长枪；</t>
+  </si>
+  <si>
+    <t>3.1版本实装角色</t>
+  </si>
+  <si>
+    <t>纳西妲
 （待实装）</t>
   </si>
   <si>
-    <t>英文名Baizhu，成男，五星草法；</t>
-  </si>
-  <si>
-    <t xml:space="preserve">璃月布卜庐药房掌柜，曾在主线任务和活动中登场；
+    <t xml:space="preserve">英文名Nahida/Kusanali，萝莉，五星草法；
 </t>
   </si>
   <si>
-    <t>璃月在途卫星角色；颈上所挂白蛇名为“长生”</t>
-  </si>
-  <si>
-    <t>瑶瑶
-（待实装）</t>
-  </si>
-  <si>
-    <t>英文名Yaoyao，萝莉，香菱的师妹；传言草系法器，早期曾有草系长枪的说法；</t>
-  </si>
-  <si>
-    <t>原神CBT八骏图角色之一，璃月在途卫星角色</t>
-  </si>
-  <si>
-    <t>杰吉特
-（待证实）</t>
-  </si>
-  <si>
-    <t>英文名Djajeet，男性</t>
-  </si>
-  <si>
-    <t>可能的须弥在途卫星角色之一</t>
+    <t>传言3.2版本实装；</t>
+  </si>
+  <si>
+    <t>官方称其为「神秘少女」，实际作为小吉祥草王本王，早在2.8版本活动中就初次亮相；或许是第一个主动向旅行者伸出援手的尘世七执政；</t>
+  </si>
+  <si>
+    <t>又名草神，须弥羽球（误）</t>
   </si>
   <si>
     <t>雷电国崩（流浪者）/
@@ -946,13 +995,83 @@
 （待实装）</t>
   </si>
   <si>
-    <t>英文名Wanderer/Scaramouche/Kunikuzushi，少年，传言为五星雷法</t>
-  </si>
-  <si>
-    <t>身世复杂，可公开身份为愚人众执行官第六席，曾在主线任务和活动剧情中登场</t>
-  </si>
-  <si>
-    <t>【存疑】传言3.2或3.3版本实装</t>
+    <t>英文名Wanderer/Scaramouche/Kunikuzushi，少年，传言为五星风法；早期曾传言为雷法；</t>
+  </si>
+  <si>
+    <t>身世复杂，可公开身份为愚人众执行官第六席，曾在主线任务和活动剧情中登场；可能在未来剧情发挥重大作用；</t>
+  </si>
+  <si>
+    <t>传言3.2或3.3版本实装</t>
+  </si>
+  <si>
+    <t>外号雷大炮，试作__ __</t>
+  </si>
+  <si>
+    <t>迪希雅
+（待实装）</t>
+  </si>
+  <si>
+    <t>英文名Dehya，成女，五星火大剑；隶属于镀金旅团，身份为雇佣兵；传言33版本实装</t>
+  </si>
+  <si>
+    <t>在官方须弥前瞻短片登场的须弥卫星角色之一</t>
+  </si>
+  <si>
+    <t>艾尔海森
+（待实装）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>英文名Al-Haitam/Haytham/Hatham​，曾用代号“苏”，成男，五星草单手剑，传言3.3版本以后实装；初见于奥摩斯港，其本人出身于须弥教令院的「知论派」，绝对的理性主义者；</t>
+  </si>
+  <si>
+    <t>在官方须弥前瞻短片登场的须弥卫星角色之一；</t>
+  </si>
+  <si>
+    <t>又称海哥</t>
+  </si>
+  <si>
+    <t>白术
+（待实装）</t>
+  </si>
+  <si>
+    <t>英文名Baizhu，成男，五星草法；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">璃月布卜庐药房掌柜，曾在主线任务和活动中登场；
+</t>
+  </si>
+  <si>
+    <t>璃月在途卫星角色；颈上所挂白蛇名为“长生”</t>
+  </si>
+  <si>
+    <t>瑶瑶
+（待实装）</t>
+  </si>
+  <si>
+    <t>英文名Yaoyao，萝莉，香菱的师妹；传言草系法器，早期曾有草系长枪的说法；</t>
+  </si>
+  <si>
+    <t>原神CBT八骏图最后一位未实装角色，璃月在途卫星角色</t>
+  </si>
+  <si>
+    <t>Mika
+（待证实）</t>
+  </si>
+  <si>
+    <t>英文名Mika，男性，可能的蒙德在途卫星角色</t>
+  </si>
+  <si>
+    <t>杰吉特
+（待证实）</t>
+  </si>
+  <si>
+    <t>英文名Djajeet，男性</t>
+  </si>
+  <si>
+    <t>可能的须弥在途卫星角色之一</t>
   </si>
   <si>
     <t>纳芙丝
@@ -962,16 +1081,6 @@
     <t>英文名Nafs，女性</t>
   </si>
   <si>
-    <t>妮露
-（待实装）</t>
-  </si>
-  <si>
-    <t>英文名Nilou，少女，五星水单手剑</t>
-  </si>
-  <si>
-    <t>解包中发现了建模，须弥卫星角色之一；传言3.1实装</t>
-  </si>
-  <si>
     <t>伊赫法
 （待证实）</t>
   </si>
@@ -989,7 +1098,7 @@
     <t>英文名Lyala，女性，传言为四星冰单手剑，少女体型</t>
   </si>
   <si>
-    <t>坎蒂丝（暂称）
+    <t>坎蒂丝
 （待证实）</t>
   </si>
   <si>
@@ -1003,26 +1112,6 @@
     <t>英文名Faruzan，女性，传言为风系弓，少女体型</t>
   </si>
   <si>
-    <t>迪希雅
-（待实装）</t>
-  </si>
-  <si>
-    <t>英文名Dehya，成女，四星火大剑</t>
-  </si>
-  <si>
-    <t>解包中发现了建模，须弥卫星角色之一</t>
-  </si>
-  <si>
-    <t>艾尔海森
-（待实装）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>英文名AI-Haitam/Haytham/Hatham​，曾用代号“苏”（Su），成男，五星草单手剑</t>
-  </si>
-  <si>
     <t>苏蒂娜
 （待证实）</t>
   </si>
@@ -1030,7 +1119,14 @@
     <t>英文名Soutine，女性；</t>
   </si>
   <si>
-    <t>可能的须弥在途卫星角色之一；一说为愚人众执行官的其中某一席</t>
+    <t>卡维
+（待证实）</t>
+  </si>
+  <si>
+    <t>英文名Kavi，男性；</t>
+  </si>
+  <si>
+    <t>在部分须弥角色语音中被提及，可能的须弥在途卫星之一；身为须弥的建筑师，似乎因为负债累累，现阶段借宿于艾尔海森的住所</t>
   </si>
   <si>
     <t>普尔希纳
@@ -1041,23 +1137,6 @@
   </si>
   <si>
     <t>可能的卫星角色，国籍不明</t>
-  </si>
-  <si>
-    <t>纳西妲/小吉祥草王
-（待实装）</t>
-  </si>
-  <si>
-    <t>英文名Nihada/Kusanali，萝莉，五星草法；</t>
-  </si>
-  <si>
-    <t>解包中发现了建模，传言3.1或3.2版本实装</t>
-  </si>
-  <si>
-    <t>赛诺
-（待实装）</t>
-  </si>
-  <si>
-    <t>英文名Cyno，少年，原神官方漫画登场角色暨原神足迹PV立绘公开角色之一，传言为五星雷枪，传言3.1实装</t>
   </si>
   <si>
     <t>旅行者（水）
@@ -1230,6 +1309,12 @@
     <t>Wuyi，yyds</t>
   </si>
   <si>
+    <t>英文名Mika，男性，传言少年体型，冰系神之眼</t>
+  </si>
+  <si>
+    <t>外貌可以简单理解成班尼特和优菈的结合：短金发蓝瞳，佩戴类似优菈设计的领带和胸针；可能的蒙德卫星角色；法尔伽的传话人？</t>
+  </si>
+  <si>
     <t>阿斯莫德
 （待证实）</t>
   </si>
@@ -1253,14 +1338,11 @@
 （彩蛋）</t>
   </si>
   <si>
-    <t>Cyanne，Eurydice，Zakhfar，Dottore，Skirk（丝柯克）</t>
+    <t>Cyanne，Eurydice，Zakhfar，Skirk（丝柯克）</t>
   </si>
   <si>
     <t>【存疑】枫丹角色卫星：Marie，Irene，
 Cordelia</t>
-  </si>
-  <si>
-    <t>【存疑】执行官卫星：Damselette/“Columbina”</t>
   </si>
 </sst>
 </file>
@@ -1268,44 +1350,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="182" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="185" formatCode="yy/m/d"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="186" formatCode="mmmmm"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="187" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="188" formatCode="m/d"/>
+    <numFmt numFmtId="189" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="190" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="191" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="192" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="193" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="194" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="196" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="197" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="198" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="199" formatCode="#\ ??"/>
+    <numFmt numFmtId="200" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="201" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="181" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="182" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="184" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="186" formatCode="yy/m/d"/>
-    <numFmt numFmtId="187" formatCode="m/d"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="188" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="189" formatCode="mmmmm"/>
-    <numFmt numFmtId="190" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="191" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="192" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="193" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="194" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="195" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="196" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="197" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="199" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="200" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="201" formatCode="#\ ??"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1356,22 +1438,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1385,18 +1452,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1417,23 +1492,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1447,29 +1538,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1484,16 +1558,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1574,13 +1656,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,19 +1710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,67 +1722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,7 +1746,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,54 +1824,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1894,6 +1976,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1919,37 +2036,24 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF595959"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1959,7 +2063,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1979,25 +2083,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2028,157 +2123,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="194" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2221,24 +2325,27 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2321,6 +2428,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2401,6 +2514,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2437,6 +2553,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2473,6 +2592,9 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2491,76 +2613,154 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2578,46 +2778,31 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2626,7 +2811,7 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2635,61 +2820,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3029,25 +3184,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H471"/>
+  <dimension ref="A1:H496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B263" sqref="B263:B265"/>
+      <selection pane="bottomLeft" activeCell="B297" sqref="B297:C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.875" style="8" customWidth="1"/>
-    <col min="2" max="6" width="14.9916666666667" style="21" customWidth="1"/>
-    <col min="7" max="7" width="59.25" style="22" customWidth="1"/>
-    <col min="8" max="8" width="29.6666666666667" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="12.625" style="21" customWidth="1"/>
+    <col min="2" max="6" width="14.9916666666667" style="22" customWidth="1"/>
+    <col min="7" max="7" width="59.25" style="23" customWidth="1"/>
+    <col min="8" max="8" width="29.6666666666667" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="12.625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="49.75" customHeight="1" spans="1:7">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3062,608 +3217,608 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="51" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="49.5" spans="1:8">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="26"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="26"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="53" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="82.5" spans="1:8">
-      <c r="A5" s="26"/>
-      <c r="H5" s="51" t="s">
+      <c r="A5" s="27"/>
+      <c r="H5" s="54" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:8">
-      <c r="A6" s="27"/>
-      <c r="H6" s="50" t="s">
+      <c r="A6" s="28"/>
+      <c r="H6" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="49.5" spans="1:8">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="56" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:7">
-      <c r="A8" s="30"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="54"/>
+      <c r="G8" s="57"/>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:7">
-      <c r="A9" s="30"/>
-      <c r="C9" s="29" t="s">
+      <c r="A9" s="31"/>
+      <c r="C9" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="54"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:7">
-      <c r="A10" s="30"/>
-      <c r="G10" s="54"/>
+      <c r="A10" s="31"/>
+      <c r="G10" s="57"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:7">
-      <c r="A11" s="31"/>
-      <c r="G11" s="54"/>
+      <c r="A11" s="32"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" s="4" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:7">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="56"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:7">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="56"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:7">
-      <c r="A15" s="34"/>
-      <c r="G15" s="56"/>
+      <c r="A15" s="35"/>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:7">
-      <c r="A16" s="35"/>
-      <c r="G16" s="56"/>
+      <c r="A16" s="36"/>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="38" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="60" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:7">
-      <c r="A18" s="38"/>
-      <c r="C18" s="37" t="s">
+      <c r="A18" s="39"/>
+      <c r="C18" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="38" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="58"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:7">
-      <c r="A19" s="38"/>
-      <c r="E19" s="37" t="s">
+      <c r="A19" s="39"/>
+      <c r="E19" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="58"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:7">
-      <c r="A20" s="38"/>
-      <c r="G20" s="58"/>
+      <c r="A20" s="39"/>
+      <c r="G20" s="61"/>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:7">
-      <c r="A21" s="39"/>
-      <c r="G21" s="58"/>
+      <c r="A21" s="40"/>
+      <c r="G21" s="61"/>
     </row>
     <row r="22" s="6" customFormat="1" ht="66" spans="1:7">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="42" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:7">
-      <c r="A23" s="42"/>
-      <c r="G23" s="60"/>
+      <c r="A23" s="43"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:7">
-      <c r="A24" s="42"/>
-      <c r="G24" s="60"/>
+      <c r="A24" s="43"/>
+      <c r="G24" s="63"/>
     </row>
     <row r="25" s="6" customFormat="1" spans="1:7">
-      <c r="A25" s="42"/>
-      <c r="G25" s="60"/>
+      <c r="A25" s="43"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:7">
-      <c r="A26" s="43"/>
-      <c r="G26" s="60"/>
+      <c r="A26" s="44"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" s="7" customFormat="1" ht="33" spans="1:7">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="46" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="64" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="1" spans="1:7">
-      <c r="A28" s="46"/>
-      <c r="G28" s="62"/>
+      <c r="A28" s="47"/>
+      <c r="G28" s="65"/>
     </row>
     <row r="29" s="7" customFormat="1" spans="1:7">
-      <c r="A29" s="46"/>
-      <c r="G29" s="62"/>
+      <c r="A29" s="47"/>
+      <c r="G29" s="65"/>
     </row>
     <row r="30" s="7" customFormat="1" spans="1:7">
-      <c r="A30" s="46"/>
-      <c r="G30" s="62"/>
+      <c r="A30" s="47"/>
+      <c r="G30" s="65"/>
     </row>
     <row r="31" s="7" customFormat="1" spans="1:7">
-      <c r="A31" s="47"/>
-      <c r="G31" s="62"/>
+      <c r="A31" s="48"/>
+      <c r="G31" s="65"/>
     </row>
     <row r="32" s="6" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="42" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="62" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" s="6" customFormat="1" spans="1:7">
-      <c r="A33" s="42"/>
-      <c r="C33" s="41" t="s">
+      <c r="A33" s="43"/>
+      <c r="C33" s="42" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="60"/>
+      <c r="G33" s="63"/>
     </row>
     <row r="34" s="6" customFormat="1" spans="1:7">
-      <c r="A34" s="42"/>
-      <c r="G34" s="60"/>
+      <c r="A34" s="43"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" s="6" customFormat="1" spans="1:7">
-      <c r="A35" s="42"/>
-      <c r="G35" s="60"/>
+      <c r="A35" s="43"/>
+      <c r="G35" s="63"/>
     </row>
     <row r="36" s="6" customFormat="1" spans="1:7">
-      <c r="A36" s="43"/>
-      <c r="G36" s="60"/>
+      <c r="A36" s="44"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" s="5" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="38" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="37" t="s">
+      <c r="E37" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="57" t="s">
+      <c r="G37" s="60" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" s="5" customFormat="1" spans="1:7">
-      <c r="A38" s="38"/>
-      <c r="B38" s="37" t="s">
+      <c r="A38" s="39"/>
+      <c r="B38" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="58"/>
+      <c r="G38" s="61"/>
     </row>
     <row r="39" s="5" customFormat="1" spans="1:7">
-      <c r="A39" s="38"/>
-      <c r="B39" s="37" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="58"/>
+      <c r="G39" s="61"/>
     </row>
     <row r="40" s="5" customFormat="1" spans="1:7">
-      <c r="A40" s="38"/>
-      <c r="G40" s="58"/>
+      <c r="A40" s="39"/>
+      <c r="G40" s="61"/>
     </row>
     <row r="41" s="5" customFormat="1" spans="1:7">
-      <c r="A41" s="39"/>
-      <c r="G41" s="58"/>
+      <c r="A41" s="40"/>
+      <c r="G41" s="61"/>
     </row>
     <row r="42" s="3" customFormat="1" ht="33" spans="1:7">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="30" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="53" t="s">
+      <c r="G42" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" spans="1:7">
-      <c r="A43" s="30"/>
-      <c r="C43" s="29" t="s">
+      <c r="A43" s="31"/>
+      <c r="C43" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="30" t="s">
         <v>74</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="54"/>
+      <c r="G43" s="57"/>
     </row>
     <row r="44" s="3" customFormat="1" spans="1:7">
-      <c r="A44" s="30"/>
-      <c r="G44" s="54"/>
+      <c r="A44" s="31"/>
+      <c r="G44" s="57"/>
     </row>
     <row r="45" s="3" customFormat="1" spans="1:7">
-      <c r="A45" s="30"/>
-      <c r="G45" s="54"/>
+      <c r="A45" s="31"/>
+      <c r="G45" s="57"/>
     </row>
     <row r="46" s="3" customFormat="1" spans="1:7">
-      <c r="A46" s="31"/>
-      <c r="G46" s="54"/>
+      <c r="A46" s="32"/>
+      <c r="G46" s="57"/>
     </row>
     <row r="47" s="4" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="34" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="34" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="55" t="s">
+      <c r="G47" s="58" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:7">
-      <c r="A48" s="34"/>
-      <c r="B48" s="33" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="34" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="56"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" s="4" customFormat="1" spans="1:7">
-      <c r="A49" s="34"/>
-      <c r="B49" s="33" t="s">
+      <c r="A49" s="35"/>
+      <c r="B49" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="56"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" s="4" customFormat="1" spans="1:7">
-      <c r="A50" s="34"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="34" t="s">
         <v>83</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="34" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="56"/>
+      <c r="G50" s="59"/>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:7">
-      <c r="A51" s="35"/>
-      <c r="E51" s="33" t="s">
+      <c r="A51" s="36"/>
+      <c r="E51" s="34" t="s">
         <v>48</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="56"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" s="7" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="46" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="61" t="s">
+      <c r="G52" s="64" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="53" s="7" customFormat="1" spans="1:7">
-      <c r="A53" s="46"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="62"/>
+      <c r="A53" s="47"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="65"/>
     </row>
     <row r="54" s="7" customFormat="1" spans="1:7">
-      <c r="A54" s="46"/>
-      <c r="G54" s="62"/>
+      <c r="A54" s="47"/>
+      <c r="G54" s="65"/>
     </row>
     <row r="55" s="7" customFormat="1" spans="1:7">
-      <c r="A55" s="46"/>
-      <c r="G55" s="62"/>
+      <c r="A55" s="47"/>
+      <c r="G55" s="65"/>
     </row>
     <row r="56" s="7" customFormat="1" spans="1:7">
-      <c r="A56" s="47"/>
-      <c r="G56" s="62"/>
+      <c r="A56" s="48"/>
+      <c r="G56" s="65"/>
     </row>
     <row r="57" s="5" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="50" t="s">
         <v>86</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F57" s="37" t="s">
+      <c r="F57" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G57" s="57" t="s">
+      <c r="G57" s="60" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="1" spans="1:7">
-      <c r="A58" s="38"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="58"/>
+      <c r="A58" s="39"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="61"/>
     </row>
     <row r="59" s="5" customFormat="1" spans="1:7">
-      <c r="A59" s="38"/>
-      <c r="G59" s="58"/>
+      <c r="A59" s="39"/>
+      <c r="G59" s="61"/>
     </row>
     <row r="60" s="5" customFormat="1" spans="1:7">
-      <c r="A60" s="38"/>
-      <c r="G60" s="58"/>
+      <c r="A60" s="39"/>
+      <c r="G60" s="61"/>
     </row>
     <row r="61" s="5" customFormat="1" spans="1:7">
-      <c r="A61" s="39"/>
-      <c r="G61" s="58"/>
+      <c r="A61" s="40"/>
+      <c r="G61" s="61"/>
     </row>
     <row r="62" s="4" customFormat="1" ht="66" spans="1:7">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="35" t="s">
         <v>87</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -3675,12 +3830,12 @@
       <c r="E62" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="55" t="s">
+      <c r="G62" s="58" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="63" s="4" customFormat="1" spans="1:7">
-      <c r="A63" s="34"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="4" t="s">
         <v>80</v>
       </c>
@@ -3693,53 +3848,53 @@
       <c r="F63" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="56"/>
+      <c r="G63" s="59"/>
     </row>
     <row r="64" s="4" customFormat="1" spans="1:7">
-      <c r="A64" s="34"/>
-      <c r="G64" s="56"/>
+      <c r="A64" s="35"/>
+      <c r="G64" s="59"/>
     </row>
     <row r="65" s="4" customFormat="1" spans="1:7">
-      <c r="A65" s="34"/>
-      <c r="G65" s="56"/>
+      <c r="A65" s="35"/>
+      <c r="G65" s="59"/>
     </row>
     <row r="66" s="4" customFormat="1" spans="1:7">
-      <c r="A66" s="35"/>
-      <c r="G66" s="56"/>
+      <c r="A66" s="36"/>
+      <c r="G66" s="59"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="26" t="s">
         <v>91</v>
       </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="26" t="s">
         <v>92</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="70" t="s">
+      <c r="G67" s="73" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:7">
-      <c r="A68" s="26"/>
+      <c r="A68" s="27"/>
       <c r="C68" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="25" t="s">
+      <c r="E68" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="50"/>
+      <c r="G68" s="53"/>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:7">
-      <c r="A69" s="26"/>
+      <c r="A69" s="27"/>
       <c r="C69" s="2" t="s">
         <v>95</v>
       </c>
@@ -3750,131 +3905,131 @@
       <c r="F69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="50"/>
+      <c r="G69" s="53"/>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:7">
-      <c r="A70" s="26"/>
-      <c r="G70" s="50"/>
+      <c r="A70" s="27"/>
+      <c r="G70" s="53"/>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:7">
-      <c r="A71" s="26"/>
-      <c r="G71" s="50"/>
+      <c r="A71" s="27"/>
+      <c r="G71" s="53"/>
     </row>
     <row r="72" s="4" customFormat="1" ht="66" spans="1:7">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="34" t="s">
         <v>97</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G72" s="55" t="s">
+      <c r="G72" s="58" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" spans="1:7">
-      <c r="A73" s="34"/>
-      <c r="C73" s="33" t="s">
+      <c r="A73" s="35"/>
+      <c r="C73" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="4"/>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F73" s="33" t="s">
+      <c r="F73" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G73" s="56"/>
+      <c r="G73" s="59"/>
     </row>
     <row r="74" s="4" customFormat="1" spans="1:7">
-      <c r="A74" s="34"/>
-      <c r="C74" s="33" t="s">
+      <c r="A74" s="35"/>
+      <c r="C74" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D74" s="4"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="56"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="59"/>
     </row>
     <row r="75" s="4" customFormat="1" spans="1:7">
-      <c r="A75" s="34"/>
-      <c r="G75" s="56"/>
+      <c r="A75" s="35"/>
+      <c r="G75" s="59"/>
     </row>
     <row r="76" s="4" customFormat="1" spans="1:7">
-      <c r="A76" s="35"/>
-      <c r="G76" s="56"/>
+      <c r="A76" s="36"/>
+      <c r="G76" s="59"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="66" spans="1:7">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="26" t="s">
         <v>103</v>
       </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="25" t="s">
+      <c r="E77" s="26" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="2"/>
-      <c r="G77" s="51" t="s">
+      <c r="G77" s="54" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:7">
-      <c r="A78" s="26"/>
-      <c r="B78" s="25" t="s">
+      <c r="A78" s="27"/>
+      <c r="B78" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D78" s="2"/>
-      <c r="E78" s="25" t="s">
+      <c r="E78" s="26" t="s">
         <v>53</v>
       </c>
       <c r="F78" s="2"/>
-      <c r="G78" s="50"/>
+      <c r="G78" s="53"/>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:7">
-      <c r="A79" s="26"/>
-      <c r="B79" s="25" t="s">
+      <c r="A79" s="27"/>
+      <c r="B79" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="26" t="s">
         <v>106</v>
       </c>
       <c r="D79" s="2"/>
-      <c r="E79" s="25" t="s">
+      <c r="E79" s="26" t="s">
         <v>107</v>
       </c>
       <c r="F79" s="2"/>
-      <c r="G79" s="50"/>
+      <c r="G79" s="53"/>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:7">
-      <c r="A80" s="26"/>
-      <c r="B80" s="25" t="s">
+      <c r="A80" s="27"/>
+      <c r="B80" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G80" s="50"/>
+      <c r="G80" s="53"/>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:7">
-      <c r="A81" s="27"/>
-      <c r="G81" s="50"/>
+      <c r="A81" s="28"/>
+      <c r="G81" s="53"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="66" spans="1:7">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="27" t="s">
         <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3886,12 +4041,12 @@
       <c r="E82" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G82" s="51" t="s">
+      <c r="G82" s="54" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:7">
-      <c r="A83" s="26"/>
+      <c r="A83" s="27"/>
       <c r="B83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3904,376 +4059,376 @@
       <c r="F83" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="50"/>
+      <c r="G83" s="53"/>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:7">
-      <c r="A84" s="26"/>
+      <c r="A84" s="27"/>
       <c r="B84" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G84" s="50"/>
+      <c r="G84" s="53"/>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:7">
-      <c r="A85" s="26"/>
+      <c r="A85" s="27"/>
       <c r="C85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G85" s="53"/>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="1:7">
+      <c r="A86" s="27"/>
+      <c r="G86" s="53"/>
+    </row>
+    <row r="87" s="7" customFormat="1" ht="66" spans="1:7">
+      <c r="A87" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="G85" s="50"/>
-    </row>
-    <row r="86" s="2" customFormat="1" spans="1:7">
-      <c r="A86" s="26"/>
-      <c r="G86" s="50"/>
-    </row>
-    <row r="87" s="7" customFormat="1" ht="66" spans="1:7">
-      <c r="A87" s="44" t="s">
+      <c r="B87" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="61" t="s">
+    </row>
+    <row r="88" s="7" customFormat="1" spans="1:7">
+      <c r="A88" s="47"/>
+      <c r="B88" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F88" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G88" s="65"/>
+    </row>
+    <row r="89" s="7" customFormat="1" spans="1:7">
+      <c r="A89" s="47"/>
+      <c r="B89" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="65"/>
+    </row>
+    <row r="90" s="7" customFormat="1" spans="1:7">
+      <c r="A90" s="47"/>
+      <c r="B90" s="46" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="88" s="7" customFormat="1" spans="1:7">
-      <c r="A88" s="46"/>
-      <c r="B88" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F88" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="G88" s="62"/>
-    </row>
-    <row r="89" s="7" customFormat="1" spans="1:7">
-      <c r="A89" s="46"/>
-      <c r="B89" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="62"/>
-    </row>
-    <row r="90" s="7" customFormat="1" spans="1:7">
-      <c r="A90" s="46"/>
-      <c r="B90" s="45" t="s">
+      <c r="C90" s="46" t="s">
         <v>114</v>
-      </c>
-      <c r="C90" s="45" t="s">
-        <v>115</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="62"/>
+      <c r="G90" s="65"/>
     </row>
     <row r="91" s="7" customFormat="1" spans="1:7">
-      <c r="A91" s="47"/>
-      <c r="C91" s="45" t="s">
+      <c r="A91" s="48"/>
+      <c r="C91" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G91" s="62"/>
+      <c r="G91" s="65"/>
     </row>
     <row r="92" s="3" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="F92" s="3"/>
+      <c r="G92" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:7">
+      <c r="A93" s="31"/>
+      <c r="B93" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="57"/>
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:7">
+      <c r="A94" s="31"/>
+      <c r="B94" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="57"/>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:7">
+      <c r="A95" s="31"/>
+      <c r="B95" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G95" s="57"/>
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:7">
+      <c r="A96" s="32"/>
+      <c r="G96" s="57"/>
+    </row>
+    <row r="97" s="6" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A97" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="6"/>
+      <c r="G97" s="62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" s="6" customFormat="1" spans="1:7">
+      <c r="A98" s="68"/>
+      <c r="B98" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="63"/>
+    </row>
+    <row r="99" s="6" customFormat="1" spans="1:7">
+      <c r="A99" s="68"/>
+      <c r="C99" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="63"/>
+    </row>
+    <row r="100" s="6" customFormat="1" spans="1:7">
+      <c r="A100" s="68"/>
+      <c r="C100" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E100" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F100" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G100" s="63"/>
+    </row>
+    <row r="101" s="6" customFormat="1" spans="1:7">
+      <c r="A101" s="69"/>
+      <c r="E101" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F101" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G101" s="63"/>
+    </row>
+    <row r="102" s="4" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A102" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" s="4" customFormat="1" spans="1:7">
+      <c r="A103" s="35"/>
+      <c r="B103" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" s="3" customFormat="1" spans="1:7">
-      <c r="A93" s="30"/>
-      <c r="B93" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="54"/>
-    </row>
-    <row r="94" s="3" customFormat="1" spans="1:7">
-      <c r="A94" s="30"/>
-      <c r="B94" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="54"/>
-    </row>
-    <row r="95" s="3" customFormat="1" spans="1:7">
-      <c r="A95" s="30"/>
-      <c r="B95" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F95" s="29" t="s">
+      <c r="C103" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="54"/>
-    </row>
-    <row r="96" s="3" customFormat="1" spans="1:7">
-      <c r="A96" s="31"/>
-      <c r="G96" s="54"/>
-    </row>
-    <row r="97" s="6" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A97" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="B97" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C97" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E97" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" s="6" customFormat="1" spans="1:7">
-      <c r="A98" s="65"/>
-      <c r="B98" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="60"/>
-    </row>
-    <row r="99" s="6" customFormat="1" spans="1:7">
-      <c r="A99" s="65"/>
-      <c r="C99" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E99" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="60"/>
-    </row>
-    <row r="100" s="6" customFormat="1" spans="1:7">
-      <c r="A100" s="65"/>
-      <c r="C100" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="E100" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="F100" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="G100" s="60"/>
-    </row>
-    <row r="101" s="6" customFormat="1" spans="1:7">
-      <c r="A101" s="66"/>
-      <c r="E101" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="F101" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="G101" s="60"/>
-    </row>
-    <row r="102" s="4" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A102" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" s="4" customFormat="1" spans="1:7">
-      <c r="A103" s="34"/>
-      <c r="B103" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F103" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G103" s="56"/>
+      <c r="G103" s="59"/>
     </row>
     <row r="104" s="4" customFormat="1" spans="1:7">
-      <c r="A104" s="34"/>
-      <c r="B104" s="33" t="s">
+      <c r="A104" s="35"/>
+      <c r="B104" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="33" t="s">
+      <c r="E104" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G104" s="59"/>
+    </row>
+    <row r="105" s="4" customFormat="1" spans="1:7">
+      <c r="A105" s="35"/>
+      <c r="E105" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F105" s="34"/>
+      <c r="G105" s="59"/>
+    </row>
+    <row r="106" s="4" customFormat="1" spans="1:7">
+      <c r="A106" s="36"/>
+      <c r="E106" s="34"/>
+      <c r="G106" s="59"/>
+    </row>
+    <row r="107" s="7" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A107" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F104" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G104" s="56"/>
-    </row>
-    <row r="105" s="4" customFormat="1" spans="1:7">
-      <c r="A105" s="34"/>
-      <c r="E105" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F105" s="33"/>
-      <c r="G105" s="56"/>
-    </row>
-    <row r="106" s="4" customFormat="1" spans="1:7">
-      <c r="A106" s="35"/>
-      <c r="E106" s="33"/>
-      <c r="G106" s="56"/>
-    </row>
-    <row r="107" s="7" customFormat="1" ht="66" spans="1:7">
-      <c r="A107" s="44" t="s">
+      <c r="E107" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="B107" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="45" t="s">
+    </row>
+    <row r="108" s="7" customFormat="1" spans="1:7">
+      <c r="A108" s="47"/>
+      <c r="B108" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="E107" s="45" t="s">
+      <c r="D108" s="7"/>
+      <c r="E108" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="F107" s="7"/>
-      <c r="G107" s="71" t="s">
+      <c r="F108" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="75"/>
+    </row>
+    <row r="109" s="7" customFormat="1" spans="1:7">
+      <c r="A109" s="47"/>
+      <c r="B109" s="46" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="108" s="7" customFormat="1" spans="1:7">
-      <c r="A108" s="46"/>
-      <c r="B108" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C108" s="45" t="s">
+      <c r="C109" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F108" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="72"/>
-    </row>
-    <row r="109" s="7" customFormat="1" spans="1:7">
-      <c r="A109" s="46"/>
-      <c r="B109" s="45" t="s">
+      <c r="D109" s="7"/>
+      <c r="E109" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="7"/>
+      <c r="G109" s="65"/>
+    </row>
+    <row r="110" s="7" customFormat="1" spans="1:7">
+      <c r="A110" s="47"/>
+      <c r="B110" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="45" t="s">
+      <c r="G110" s="65"/>
+    </row>
+    <row r="111" s="7" customFormat="1" spans="1:7">
+      <c r="A111" s="48"/>
+      <c r="G111" s="65"/>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="66" spans="1:7">
+      <c r="A112" s="70" t="s">
         <v>134</v>
-      </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F109" s="7"/>
-      <c r="G109" s="62"/>
-    </row>
-    <row r="110" s="7" customFormat="1" spans="1:7">
-      <c r="A110" s="46"/>
-      <c r="B110" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" s="62"/>
-    </row>
-    <row r="111" s="7" customFormat="1" spans="1:7">
-      <c r="A111" s="47"/>
-      <c r="G111" s="62"/>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="66" spans="1:7">
-      <c r="A112" s="67" t="s">
-        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>36</v>
@@ -4282,580 +4437,580 @@
         <v>33</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="25" t="s">
+      <c r="E112" s="26" t="s">
         <v>92</v>
       </c>
       <c r="F112" s="2"/>
-      <c r="G112" s="73" t="s">
-        <v>137</v>
+      <c r="G112" s="76" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:7">
-      <c r="A113" s="68"/>
+      <c r="A113" s="71"/>
       <c r="B113" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="25" t="s">
+      <c r="E113" s="26" t="s">
         <v>74</v>
       </c>
       <c r="F113" s="2"/>
-      <c r="G113" s="50"/>
+      <c r="G113" s="53"/>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:7">
-      <c r="A114" s="68"/>
-      <c r="B114" s="25" t="s">
+      <c r="A114" s="71"/>
+      <c r="B114" s="26" t="s">
         <v>66</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="25" t="s">
+      <c r="E114" s="26" t="s">
         <v>98</v>
       </c>
       <c r="F114" s="2"/>
-      <c r="G114" s="50"/>
+      <c r="G114" s="53"/>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:7">
-      <c r="A115" s="68"/>
-      <c r="B115" s="25" t="s">
+      <c r="A115" s="71"/>
+      <c r="B115" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="25" t="s">
+      <c r="E115" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F115" s="2"/>
-      <c r="G115" s="50"/>
+      <c r="G115" s="53"/>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:7">
-      <c r="A116" s="68"/>
-      <c r="G116" s="50"/>
+      <c r="A116" s="71"/>
+      <c r="G116" s="53"/>
     </row>
     <row r="117" s="6" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A117" s="69" t="s">
+      <c r="A117" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D117" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F117" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G117" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="B117" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C117" s="6" t="s">
+    </row>
+    <row r="118" s="6" customFormat="1" spans="1:7">
+      <c r="A118" s="43"/>
+      <c r="B118" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D117" s="41" t="s">
+      <c r="C118" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F118" s="42"/>
+      <c r="G118" s="63"/>
+    </row>
+    <row r="119" s="6" customFormat="1" spans="1:7">
+      <c r="A119" s="43"/>
+      <c r="B119" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="63"/>
+    </row>
+    <row r="120" s="6" customFormat="1" spans="1:7">
+      <c r="A120" s="43"/>
+      <c r="B120" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="E117" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="F117" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="G117" s="59" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" s="6" customFormat="1" spans="1:7">
-      <c r="A118" s="42"/>
-      <c r="B118" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C118" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="F118" s="41"/>
-      <c r="G118" s="60"/>
-    </row>
-    <row r="119" s="6" customFormat="1" spans="1:7">
-      <c r="A119" s="42"/>
-      <c r="B119" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="60"/>
-    </row>
-    <row r="120" s="6" customFormat="1" spans="1:7">
-      <c r="A120" s="42"/>
-      <c r="B120" s="6" t="s">
+      <c r="D120" s="6"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="63"/>
+    </row>
+    <row r="121" s="6" customFormat="1" spans="1:7">
+      <c r="A121" s="44"/>
+      <c r="B121" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="C120" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="60"/>
-    </row>
-    <row r="121" s="6" customFormat="1" spans="1:7">
-      <c r="A121" s="43"/>
-      <c r="B121" s="41" t="s">
-        <v>14</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="60"/>
+      <c r="G121" s="63"/>
     </row>
     <row r="122" s="3" customFormat="1" ht="66" spans="1:7">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B122" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="29" t="s">
+      <c r="D122" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="D122" s="29" t="s">
+      <c r="E122" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="E122" s="29" t="s">
+    </row>
+    <row r="123" s="3" customFormat="1" spans="1:7">
+      <c r="A123" s="31"/>
+      <c r="C123" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F123" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G123" s="57"/>
+    </row>
+    <row r="124" s="3" customFormat="1" spans="1:7">
+      <c r="A124" s="31"/>
+      <c r="E124" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="57"/>
+    </row>
+    <row r="125" s="3" customFormat="1" spans="1:7">
+      <c r="A125" s="31"/>
+      <c r="G125" s="57"/>
+    </row>
+    <row r="126" s="3" customFormat="1" spans="1:7">
+      <c r="A126" s="32"/>
+      <c r="G126" s="57"/>
+    </row>
+    <row r="127" s="5" customFormat="1" ht="66" spans="1:7">
+      <c r="A127" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E127" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F127" s="5"/>
+      <c r="G127" s="77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" s="5" customFormat="1" spans="1:7">
+      <c r="A128" s="39"/>
+      <c r="B128" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F128" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="123" s="3" customFormat="1" spans="1:7">
-      <c r="A123" s="30"/>
-      <c r="C123" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F123" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="G123" s="54"/>
-    </row>
-    <row r="124" s="3" customFormat="1" spans="1:7">
-      <c r="A124" s="30"/>
-      <c r="E124" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="54"/>
-    </row>
-    <row r="125" s="3" customFormat="1" spans="1:7">
-      <c r="A125" s="30"/>
-      <c r="G125" s="54"/>
-    </row>
-    <row r="126" s="3" customFormat="1" spans="1:7">
-      <c r="A126" s="31"/>
-      <c r="G126" s="54"/>
-    </row>
-    <row r="127" s="5" customFormat="1" ht="66" spans="1:7">
-      <c r="A127" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C127" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E127" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="F127" s="5"/>
-      <c r="G127" s="57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" s="5" customFormat="1" spans="1:7">
-      <c r="A128" s="38"/>
-      <c r="B128" s="37" t="s">
+      <c r="G128" s="61"/>
+    </row>
+    <row r="129" s="5" customFormat="1" spans="1:7">
+      <c r="A129" s="39"/>
+      <c r="B129" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C128" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="F128" s="37" t="s">
+      <c r="E129" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F129" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G128" s="58"/>
-    </row>
-    <row r="129" s="5" customFormat="1" spans="1:7">
-      <c r="A129" s="38"/>
-      <c r="B129" s="5" t="s">
+      <c r="G129" s="61"/>
+    </row>
+    <row r="130" s="5" customFormat="1" spans="1:7">
+      <c r="A130" s="39"/>
+      <c r="G130" s="61"/>
+    </row>
+    <row r="131" s="5" customFormat="1" spans="1:7">
+      <c r="A131" s="40"/>
+      <c r="G131" s="61"/>
+    </row>
+    <row r="132" s="2" customFormat="1" ht="33" spans="1:7">
+      <c r="A132" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E129" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F129" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G129" s="58"/>
-    </row>
-    <row r="130" s="5" customFormat="1" spans="1:7">
-      <c r="A130" s="38"/>
-      <c r="G130" s="58"/>
-    </row>
-    <row r="131" s="5" customFormat="1" spans="1:7">
-      <c r="A131" s="39"/>
-      <c r="G131" s="58"/>
-    </row>
-    <row r="132" s="2" customFormat="1" ht="33" spans="1:7">
-      <c r="A132" s="24" t="s">
+      <c r="B132" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="B132" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C132" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="25" t="s">
+    </row>
+    <row r="133" s="2" customFormat="1" spans="1:7">
+      <c r="A133" s="27"/>
+      <c r="B133" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F132" s="2"/>
-      <c r="G132" s="51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" s="2" customFormat="1" spans="1:7">
-      <c r="A133" s="26"/>
-      <c r="B133" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C133" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="25" t="s">
+      <c r="F133" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G133" s="53"/>
+    </row>
+    <row r="134" s="2" customFormat="1" spans="1:7">
+      <c r="A134" s="27"/>
+      <c r="B134" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F133" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G133" s="50"/>
-    </row>
-    <row r="134" s="2" customFormat="1" spans="1:7">
-      <c r="A134" s="26"/>
-      <c r="B134" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C134" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F134" s="25" t="s">
+      <c r="F134" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G134" s="50"/>
+      <c r="G134" s="53"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:7">
-      <c r="A135" s="26"/>
-      <c r="B135" s="25" t="s">
+      <c r="A135" s="27"/>
+      <c r="B135" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C135" s="26" t="s">
         <v>83</v>
       </c>
       <c r="D135" s="2"/>
-      <c r="E135" s="25" t="s">
+      <c r="E135" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F135" s="2"/>
-      <c r="G135" s="50"/>
+      <c r="G135" s="53"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:7">
-      <c r="A136" s="27"/>
+      <c r="A136" s="28"/>
       <c r="B136" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C136" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D136" s="2"/>
-      <c r="E136" s="25" t="s">
+      <c r="E136" s="26" t="s">
         <v>48</v>
       </c>
       <c r="F136" s="2"/>
-      <c r="G136" s="50"/>
+      <c r="G136" s="53"/>
     </row>
     <row r="137" s="5" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A137" s="36" t="s">
+      <c r="A137" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C137" s="38" t="s">
         <v>156</v>
-      </c>
-      <c r="B137" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C137" s="37" t="s">
-        <v>157</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E137" s="37" t="s">
-        <v>119</v>
+      <c r="E137" s="38" t="s">
+        <v>118</v>
       </c>
       <c r="F137" s="5"/>
-      <c r="G137" s="57" t="s">
+      <c r="G137" s="60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" s="5" customFormat="1" spans="1:7">
+      <c r="A138" s="39"/>
+      <c r="B138" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E138" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G138" s="61"/>
+    </row>
+    <row r="139" s="5" customFormat="1" spans="1:7">
+      <c r="A139" s="39"/>
+      <c r="E139" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F139" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G139" s="61"/>
+    </row>
+    <row r="140" s="5" customFormat="1" spans="1:7">
+      <c r="A140" s="39"/>
+      <c r="G140" s="61"/>
+    </row>
+    <row r="141" s="5" customFormat="1" spans="1:7">
+      <c r="A141" s="40"/>
+      <c r="G141" s="61"/>
+    </row>
+    <row r="142" s="3" customFormat="1" ht="66" spans="1:7">
+      <c r="A142" s="29" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="138" s="5" customFormat="1" spans="1:7">
-      <c r="A138" s="38"/>
-      <c r="B138" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C138" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E138" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G138" s="58"/>
-    </row>
-    <row r="139" s="5" customFormat="1" spans="1:7">
-      <c r="A139" s="38"/>
-      <c r="E139" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F139" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G139" s="58"/>
-    </row>
-    <row r="140" s="5" customFormat="1" spans="1:7">
-      <c r="A140" s="38"/>
-      <c r="G140" s="58"/>
-    </row>
-    <row r="141" s="5" customFormat="1" spans="1:7">
-      <c r="A141" s="39"/>
-      <c r="G141" s="58"/>
-    </row>
-    <row r="142" s="3" customFormat="1" ht="66" spans="1:7">
-      <c r="A142" s="28" t="s">
-        <v>159</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="D142" s="29" t="s">
+      <c r="C142" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E142" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="E142" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F142" s="3"/>
-      <c r="G142" s="53" t="s">
+    </row>
+    <row r="143" s="3" customFormat="1" spans="1:7">
+      <c r="A143" s="31"/>
+      <c r="B143" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C143" s="30" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="143" s="3" customFormat="1" spans="1:7">
-      <c r="A143" s="30"/>
-      <c r="B143" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C143" s="29" t="s">
+      <c r="D143" s="30"/>
+      <c r="E143" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="G143" s="57"/>
+    </row>
+    <row r="144" s="3" customFormat="1" spans="1:7">
+      <c r="A144" s="31"/>
+      <c r="B144" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F143" s="3"/>
-      <c r="G143" s="54"/>
-    </row>
-    <row r="144" s="3" customFormat="1" spans="1:7">
-      <c r="A144" s="30"/>
-      <c r="B144" s="29" t="s">
+      <c r="C144" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C144" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="G144" s="54"/>
+      <c r="G144" s="57"/>
     </row>
     <row r="145" s="3" customFormat="1" spans="1:7">
-      <c r="A145" s="30"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="54"/>
+      <c r="G145" s="57"/>
     </row>
     <row r="146" s="3" customFormat="1" spans="1:7">
-      <c r="A146" s="31"/>
-      <c r="G146" s="54"/>
+      <c r="A146" s="32"/>
+      <c r="G146" s="57"/>
     </row>
     <row r="147" s="7" customFormat="1" spans="1:7">
-      <c r="A147" s="44" t="s">
-        <v>165</v>
+      <c r="A147" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D147" s="45" t="s">
+      <c r="D147" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="E147" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="E147" s="45" t="s">
+      <c r="F147" s="7"/>
+      <c r="G147" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="F147" s="7"/>
-      <c r="G147" s="77" t="s">
+    </row>
+    <row r="148" s="7" customFormat="1" ht="66" spans="1:7">
+      <c r="A148" s="47"/>
+      <c r="B148" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148" s="46" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="148" s="7" customFormat="1" ht="66" spans="1:7">
-      <c r="A148" s="46"/>
-      <c r="B148" s="7" t="s">
+      <c r="D148" s="7"/>
+      <c r="E148" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F148" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G148" s="64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" s="7" customFormat="1" spans="1:7">
+      <c r="A149" s="47"/>
+      <c r="B149" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C148" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="D148" s="7"/>
-      <c r="E148" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F148" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="G148" s="61" t="s">
+      <c r="C149" s="46" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="149" s="7" customFormat="1" spans="1:7">
-      <c r="A149" s="46"/>
-      <c r="B149" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C149" s="45" t="s">
+      <c r="D149" s="7"/>
+      <c r="E149" s="46"/>
+      <c r="F149" s="46"/>
+      <c r="G149" s="65"/>
+    </row>
+    <row r="150" s="7" customFormat="1" spans="1:7">
+      <c r="A150" s="47"/>
+      <c r="B150" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="62"/>
-    </row>
-    <row r="150" s="7" customFormat="1" spans="1:7">
-      <c r="A150" s="46"/>
-      <c r="B150" s="45" t="s">
+      <c r="G150" s="65"/>
+    </row>
+    <row r="151" s="7" customFormat="1" spans="1:7">
+      <c r="A151" s="48"/>
+      <c r="B151" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="G150" s="62"/>
-    </row>
-    <row r="151" s="7" customFormat="1" spans="1:7">
-      <c r="A151" s="47"/>
-      <c r="B151" s="45" t="s">
+      <c r="G151" s="65"/>
+    </row>
+    <row r="152" s="2" customFormat="1" ht="66" spans="1:7">
+      <c r="A152" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="G151" s="62"/>
-    </row>
-    <row r="152" s="2" customFormat="1" ht="66" spans="1:7">
-      <c r="A152" s="24" t="s">
+      <c r="B152" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C152" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B152" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C152" s="25" t="s">
+      <c r="D152" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D152" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E152" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F152" s="2"/>
-      <c r="G152" s="51" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:7">
-      <c r="A153" s="26"/>
-      <c r="B153" s="25" t="s">
-        <v>152</v>
+      <c r="A153" s="27"/>
+      <c r="B153" s="26" t="s">
+        <v>151</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D153" s="2"/>
-      <c r="E153" s="25" t="s">
+      <c r="E153" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="F153" s="2"/>
-      <c r="G153" s="50" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:7">
-      <c r="A154" s="26"/>
-      <c r="B154" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C154" s="25" t="s">
-        <v>169</v>
+      <c r="A154" s="27"/>
+      <c r="B154" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
-      <c r="G154" s="50"/>
+      <c r="G154" s="53"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:7">
-      <c r="A155" s="26"/>
-      <c r="B155" s="25"/>
+      <c r="A155" s="27"/>
+      <c r="B155" s="26"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
-      <c r="G155" s="50"/>
+      <c r="G155" s="53"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:7">
-      <c r="A156" s="27"/>
-      <c r="B156" s="25"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="26"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
-      <c r="G156" s="50"/>
+      <c r="G156" s="53"/>
     </row>
     <row r="157" s="3" customFormat="1" ht="33" spans="1:7">
-      <c r="A157" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B157" s="29" t="s">
-        <v>152</v>
+      <c r="A157" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>95</v>
@@ -4863,269 +5018,269 @@
       <c r="E157" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G157" s="53" t="s">
-        <v>180</v>
+      <c r="G157" s="56" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="158" s="3" customFormat="1" spans="1:7">
-      <c r="A158" s="30"/>
-      <c r="B158" s="29" t="s">
-        <v>149</v>
+      <c r="A158" s="31"/>
+      <c r="B158" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G158" s="54"/>
+      <c r="G158" s="57"/>
     </row>
     <row r="159" s="3" customFormat="1" spans="1:7">
-      <c r="A159" s="30"/>
-      <c r="B159" s="29"/>
+      <c r="A159" s="31"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G159" s="57"/>
+    </row>
+    <row r="160" s="3" customFormat="1" spans="1:7">
+      <c r="A160" s="31"/>
+      <c r="B160" s="30"/>
+      <c r="G160" s="57"/>
+    </row>
+    <row r="161" s="3" customFormat="1" spans="1:7">
+      <c r="A161" s="31"/>
+      <c r="B161" s="30"/>
+      <c r="G161" s="57"/>
+    </row>
+    <row r="162" s="2" customFormat="1" ht="33" spans="1:7">
+      <c r="A162" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="G159" s="54"/>
-    </row>
-    <row r="160" s="3" customFormat="1" spans="1:7">
-      <c r="A160" s="30"/>
-      <c r="B160" s="29"/>
-      <c r="G160" s="54"/>
-    </row>
-    <row r="161" s="3" customFormat="1" spans="1:7">
-      <c r="A161" s="30"/>
-      <c r="B161" s="29"/>
-      <c r="G161" s="54"/>
-    </row>
-    <row r="162" s="2" customFormat="1" ht="33" spans="1:7">
-      <c r="A162" s="24" t="s">
+      <c r="B162" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="B162" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C162" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F162" s="2"/>
-      <c r="G162" s="51" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:7">
-      <c r="A163" s="26"/>
-      <c r="B163" s="25" t="s">
+      <c r="A163" s="27"/>
+      <c r="B163" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D163" s="2"/>
-      <c r="E163" s="25" t="s">
+      <c r="E163" s="26" t="s">
         <v>98</v>
       </c>
       <c r="F163" s="2"/>
-      <c r="G163" s="50"/>
+      <c r="G163" s="53"/>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:7">
-      <c r="A164" s="26"/>
-      <c r="B164" s="25" t="s">
+      <c r="A164" s="27"/>
+      <c r="B164" s="26" t="s">
         <v>66</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
-      <c r="G164" s="50"/>
+      <c r="G164" s="53"/>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:7">
-      <c r="A165" s="26"/>
+      <c r="A165" s="27"/>
       <c r="C165" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G165" s="50"/>
+        <v>136</v>
+      </c>
+      <c r="G165" s="53"/>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:7">
-      <c r="A166" s="27"/>
+      <c r="A166" s="28"/>
       <c r="C166" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G166" s="50"/>
+      <c r="G166" s="53"/>
     </row>
     <row r="167" s="3" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A167" s="28" t="s">
+      <c r="A167" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B167" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F167" s="3"/>
+      <c r="G167" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="B167" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C167" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D167" s="3"/>
-      <c r="E167" s="29" t="s">
+    </row>
+    <row r="168" s="3" customFormat="1" spans="1:7">
+      <c r="A168" s="31"/>
+      <c r="B168" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F167" s="3"/>
-      <c r="G167" s="53" t="s">
+      <c r="F168" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G168" s="57"/>
+    </row>
+    <row r="169" s="3" customFormat="1" spans="1:7">
+      <c r="A169" s="31"/>
+      <c r="B169" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C169" s="30" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="168" s="3" customFormat="1" spans="1:7">
-      <c r="A168" s="30"/>
-      <c r="B168" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C168" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="29" t="s">
+      <c r="D169" s="3"/>
+      <c r="E169" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F168" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G168" s="54"/>
-    </row>
-    <row r="169" s="3" customFormat="1" spans="1:7">
-      <c r="A169" s="30"/>
-      <c r="B169" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C169" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D169" s="3"/>
-      <c r="E169" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F169" s="29" t="s">
+      <c r="F169" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G169" s="54"/>
+      <c r="G169" s="57"/>
     </row>
     <row r="170" s="3" customFormat="1" spans="1:7">
-      <c r="A170" s="30"/>
-      <c r="B170" s="29" t="s">
+      <c r="A170" s="31"/>
+      <c r="B170" s="30" t="s">
         <v>82</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="29" t="s">
+      <c r="E170" s="30" t="s">
         <v>48</v>
       </c>
       <c r="F170" s="3"/>
-      <c r="G170" s="54"/>
+      <c r="G170" s="57"/>
     </row>
     <row r="171" s="3" customFormat="1" spans="1:7">
-      <c r="A171" s="31"/>
-      <c r="B171" s="29"/>
+      <c r="A171" s="32"/>
+      <c r="B171" s="30"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="54"/>
+      <c r="G171" s="57"/>
     </row>
     <row r="172" s="7" customFormat="1" ht="33" spans="1:7">
-      <c r="A172" s="44" t="s">
+      <c r="A172" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C172" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B172" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C172" s="7" t="s">
+      <c r="D172" s="7"/>
+      <c r="E172" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F172" s="7"/>
+      <c r="G172" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="D172" s="7"/>
-      <c r="E172" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F172" s="7"/>
-      <c r="G172" s="61" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="173" s="7" customFormat="1" spans="1:7">
-      <c r="A173" s="46"/>
-      <c r="B173" s="45"/>
+      <c r="A173" s="47"/>
+      <c r="B173" s="46"/>
       <c r="C173" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
-      <c r="G173" s="62"/>
+      <c r="G173" s="65"/>
     </row>
     <row r="174" s="7" customFormat="1" spans="1:7">
-      <c r="A174" s="46"/>
-      <c r="C174" s="45" t="s">
+      <c r="A174" s="47"/>
+      <c r="C174" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G174" s="62"/>
+      <c r="G174" s="65"/>
     </row>
     <row r="175" s="7" customFormat="1" spans="1:7">
-      <c r="A175" s="46"/>
-      <c r="G175" s="62"/>
+      <c r="A175" s="47"/>
+      <c r="G175" s="65"/>
     </row>
     <row r="176" s="7" customFormat="1" spans="1:7">
-      <c r="A176" s="47"/>
-      <c r="G176" s="62"/>
+      <c r="A176" s="48"/>
+      <c r="G176" s="65"/>
     </row>
     <row r="177" s="4" customFormat="1" spans="1:7">
-      <c r="A177" s="74" t="s">
+      <c r="A177" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B177" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E177" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F177" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="B177" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C177" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D177" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E177" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F177" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G177" s="78" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="178" s="4" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A178" s="34"/>
-      <c r="C178" s="33" t="s">
+      <c r="A178" s="35"/>
+      <c r="C178" s="34" t="s">
         <v>61</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
-      <c r="G178" s="55" t="s">
+      <c r="G178" s="58" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" spans="1:7">
-      <c r="A179" s="34"/>
-      <c r="G179" s="56"/>
+      <c r="A179" s="35"/>
+      <c r="G179" s="59"/>
     </row>
     <row r="180" s="4" customFormat="1" spans="1:7">
-      <c r="A180" s="34"/>
-      <c r="G180" s="56"/>
+      <c r="A180" s="35"/>
+      <c r="G180" s="59"/>
     </row>
     <row r="181" s="4" customFormat="1" spans="1:7">
-      <c r="A181" s="35"/>
-      <c r="G181" s="56"/>
+      <c r="A181" s="36"/>
+      <c r="G181" s="59"/>
     </row>
     <row r="182" s="3" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A182" s="28" t="s">
-        <v>193</v>
+      <c r="A182" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>105</v>
@@ -5133,169 +5288,169 @@
       <c r="C182" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D182" s="29" t="s">
+      <c r="D182" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E182" s="29" t="s">
+      <c r="E182" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F182" s="3"/>
-      <c r="G182" s="53" t="s">
+      <c r="G182" s="56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="183" s="3" customFormat="1" spans="1:7">
+      <c r="A183" s="31"/>
+      <c r="B183" s="30" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="183" s="3" customFormat="1" spans="1:7">
-      <c r="A183" s="30"/>
-      <c r="B183" s="29" t="s">
+      <c r="C183" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D183" s="3"/>
+      <c r="E183" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F183" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="57"/>
+    </row>
+    <row r="184" s="3" customFormat="1" spans="1:7">
+      <c r="A184" s="31"/>
+      <c r="B184" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C184" s="30" t="s">
         <v>195</v>
-      </c>
-      <c r="C183" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D183" s="3"/>
-      <c r="E183" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F183" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G183" s="54"/>
-    </row>
-    <row r="184" s="3" customFormat="1" spans="1:7">
-      <c r="A184" s="30"/>
-      <c r="B184" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C184" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
-      <c r="G184" s="54"/>
+      <c r="G184" s="57"/>
     </row>
     <row r="185" s="3" customFormat="1" spans="1:7">
-      <c r="A185" s="30"/>
-      <c r="B185" s="29" t="s">
+      <c r="A185" s="31"/>
+      <c r="B185" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
-      <c r="G185" s="54"/>
+      <c r="G185" s="57"/>
     </row>
     <row r="186" s="3" customFormat="1" spans="1:7">
-      <c r="A186" s="31"/>
-      <c r="B186" s="29"/>
+      <c r="A186" s="32"/>
+      <c r="B186" s="30"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
-      <c r="G186" s="54"/>
+      <c r="G186" s="57"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A187" s="75" t="s">
+      <c r="A187" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="B187" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D187" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E187" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="B187" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D187" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E187" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="F187" s="2"/>
-      <c r="G187" s="51" t="s">
+    </row>
+    <row r="188" s="2" customFormat="1" spans="1:7">
+      <c r="A188" s="66"/>
+      <c r="B188" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D188" s="26" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="188" s="2" customFormat="1" spans="1:7">
-      <c r="A188" s="63"/>
-      <c r="B188" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C188" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D188" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="E188" s="25" t="s">
+      <c r="E188" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F188" s="25"/>
-      <c r="G188" s="50"/>
+      <c r="F188" s="26"/>
+      <c r="G188" s="53"/>
     </row>
     <row r="189" s="2" customFormat="1" spans="1:7">
-      <c r="A189" s="63"/>
-      <c r="B189" s="25" t="s">
+      <c r="A189" s="66"/>
+      <c r="B189" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C189" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E189" s="25" t="s">
+      <c r="C189" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E189" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F189" s="25" t="s">
+      <c r="F189" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G189" s="50"/>
+      <c r="G189" s="53"/>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:7">
-      <c r="A190" s="63"/>
-      <c r="B190" s="25"/>
-      <c r="C190" s="25" t="s">
-        <v>164</v>
+      <c r="A190" s="66"/>
+      <c r="B190" s="26"/>
+      <c r="C190" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
-      <c r="G190" s="50"/>
+      <c r="G190" s="53"/>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:7">
-      <c r="A191" s="76"/>
-      <c r="B191" s="25"/>
+      <c r="A191" s="80"/>
+      <c r="B191" s="26"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
-      <c r="G191" s="50"/>
+      <c r="G191" s="53"/>
     </row>
     <row r="192" s="7" customFormat="1" ht="33" spans="1:7">
-      <c r="A192" s="44" t="s">
+      <c r="A192" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B192" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C192" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="B192" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C192" s="45" t="s">
+      <c r="D192" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="E192" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F192" s="7"/>
+      <c r="G192" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="E192" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F192" s="7"/>
-      <c r="G192" s="61" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="193" s="7" customFormat="1" spans="1:7">
-      <c r="A193" s="46"/>
-      <c r="B193" s="45" t="s">
+      <c r="A193" s="47"/>
+      <c r="B193" s="46" t="s">
         <v>82</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
@@ -5304,177 +5459,177 @@
       <c r="F193" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G193" s="62"/>
+      <c r="G193" s="65"/>
     </row>
     <row r="194" s="7" customFormat="1" spans="1:7">
-      <c r="A194" s="46"/>
+      <c r="A194" s="47"/>
       <c r="C194" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E194" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G194" s="62"/>
+      <c r="G194" s="65"/>
     </row>
     <row r="195" s="7" customFormat="1" spans="1:7">
-      <c r="A195" s="46"/>
+      <c r="A195" s="47"/>
       <c r="C195" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G195" s="65"/>
+    </row>
+    <row r="196" s="7" customFormat="1" spans="1:7">
+      <c r="A196" s="48"/>
+      <c r="G196" s="65"/>
+    </row>
+    <row r="197" s="3" customFormat="1" ht="33" spans="1:7">
+      <c r="A197" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G195" s="62"/>
-    </row>
-    <row r="196" s="7" customFormat="1" spans="1:7">
-      <c r="A196" s="47"/>
-      <c r="G196" s="62"/>
-    </row>
-    <row r="197" s="3" customFormat="1" ht="33" spans="1:7">
-      <c r="A197" s="28" t="s">
+      <c r="B197" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C197" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="B197" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C197" s="29" t="s">
+      <c r="D197" s="3"/>
+      <c r="E197" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G197" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D197" s="3"/>
-      <c r="E197" s="29" t="s">
+    </row>
+    <row r="198" s="3" customFormat="1" spans="1:7">
+      <c r="A198" s="31"/>
+      <c r="B198" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G197" s="53" t="s">
+      <c r="F198" s="30" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="198" s="3" customFormat="1" spans="1:7">
-      <c r="A198" s="30"/>
-      <c r="B198" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F198" s="29" t="s">
+      <c r="G198" s="57"/>
+    </row>
+    <row r="199" s="3" customFormat="1" spans="1:7">
+      <c r="A199" s="31"/>
+      <c r="B199" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F199" s="30"/>
+      <c r="G199" s="57"/>
+    </row>
+    <row r="200" s="3" customFormat="1" spans="1:7">
+      <c r="A200" s="31"/>
+      <c r="C200" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E200" s="30"/>
+      <c r="G200" s="57"/>
+    </row>
+    <row r="201" s="3" customFormat="1" spans="1:7">
+      <c r="A201" s="32"/>
+      <c r="G201" s="57"/>
+    </row>
+    <row r="202" s="4" customFormat="1" ht="66" spans="1:7">
+      <c r="A202" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="G198" s="54"/>
-    </row>
-    <row r="199" s="3" customFormat="1" spans="1:7">
-      <c r="A199" s="30"/>
-      <c r="B199" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="D199" s="3"/>
-      <c r="E199" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F199" s="29"/>
-      <c r="G199" s="54"/>
-    </row>
-    <row r="200" s="3" customFormat="1" spans="1:7">
-      <c r="A200" s="30"/>
-      <c r="C200" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="E200" s="29"/>
-      <c r="G200" s="54"/>
-    </row>
-    <row r="201" s="3" customFormat="1" spans="1:7">
-      <c r="A201" s="31"/>
-      <c r="G201" s="54"/>
-    </row>
-    <row r="202" s="4" customFormat="1" ht="66" spans="1:7">
-      <c r="A202" s="32" t="s">
+      <c r="B202" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="B202" s="33" t="s">
+      <c r="C202" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C202" s="33" t="s">
+      <c r="D202" s="4"/>
+      <c r="E202" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202" s="4"/>
+      <c r="G202" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D202" s="4"/>
-      <c r="E202" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F202" s="4"/>
-      <c r="G202" s="55" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="203" s="4" customFormat="1" spans="1:7">
-      <c r="A203" s="34"/>
-      <c r="B203" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C203" s="33" t="s">
+      <c r="A203" s="35"/>
+      <c r="B203" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C203" s="34" t="s">
         <v>91</v>
       </c>
       <c r="D203" s="4"/>
-      <c r="E203" s="33" t="s">
-        <v>119</v>
+      <c r="E203" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="F203" s="4"/>
-      <c r="G203" s="56"/>
+      <c r="G203" s="59"/>
     </row>
     <row r="204" s="4" customFormat="1" spans="1:7">
-      <c r="A204" s="34"/>
-      <c r="B204" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C204" s="33" t="s">
+      <c r="A204" s="35"/>
+      <c r="B204" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C204" s="34" t="s">
         <v>94</v>
       </c>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
-      <c r="G204" s="56"/>
+      <c r="G204" s="59"/>
     </row>
     <row r="205" s="4" customFormat="1" spans="1:7">
-      <c r="A205" s="34"/>
-      <c r="B205" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C205" s="33" t="s">
+      <c r="A205" s="35"/>
+      <c r="B205" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C205" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="G205" s="56"/>
+      <c r="G205" s="59"/>
     </row>
     <row r="206" s="4" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
-      <c r="A206" s="35"/>
-      <c r="G206" s="56"/>
+      <c r="A206" s="36"/>
+      <c r="G206" s="59"/>
     </row>
     <row r="207" s="4" customFormat="1" ht="33" spans="1:7">
-      <c r="A207" s="32" t="s">
+      <c r="A207" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D207" s="4"/>
+      <c r="E207" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F207" s="4"/>
+      <c r="G207" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="B207" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C207" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="D207" s="4"/>
-      <c r="E207" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F207" s="4"/>
-      <c r="G207" s="55" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="208" s="4" customFormat="1" spans="1:7">
-      <c r="A208" s="34"/>
-      <c r="B208" s="33" t="s">
+      <c r="A208" s="35"/>
+      <c r="B208" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C208" s="33" t="s">
+      <c r="C208" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="4"/>
@@ -5482,10 +5637,10 @@
         <v>9</v>
       </c>
       <c r="F208" s="4"/>
-      <c r="G208" s="56"/>
+      <c r="G208" s="59"/>
     </row>
     <row r="209" s="4" customFormat="1" spans="1:7">
-      <c r="A209" s="34"/>
+      <c r="A209" s="35"/>
       <c r="C209" s="4" t="s">
         <v>101</v>
       </c>
@@ -5495,1804 +5650,2141 @@
       <c r="F209" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G209" s="56"/>
+      <c r="G209" s="59"/>
     </row>
     <row r="210" s="4" customFormat="1" spans="1:7">
-      <c r="A210" s="34"/>
+      <c r="A210" s="35"/>
       <c r="C210" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G210" s="56"/>
+        <v>163</v>
+      </c>
+      <c r="G210" s="59"/>
     </row>
     <row r="211" s="4" customFormat="1" spans="1:7">
-      <c r="A211" s="35"/>
-      <c r="G211" s="56"/>
+      <c r="A211" s="36"/>
+      <c r="G211" s="59"/>
     </row>
     <row r="212" s="8" customFormat="1" spans="1:7">
-      <c r="A212" s="79" t="s">
-        <v>215</v>
+      <c r="A212" s="83" t="s">
+        <v>214</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C212" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="D212" s="80" t="s">
+      <c r="C212" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D212" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="E212" s="80" t="s">
-        <v>117</v>
+      <c r="E212" s="84" t="s">
+        <v>116</v>
       </c>
       <c r="F212" s="8"/>
-      <c r="G212" s="86" t="s">
+      <c r="G212" s="91" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" s="8" customFormat="1" spans="1:7">
+      <c r="A213" s="85"/>
+      <c r="B213" s="84"/>
+      <c r="C213" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="D213" s="84"/>
+      <c r="E213" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="F213" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="G213" s="91" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="213" s="8" customFormat="1" spans="1:7">
-      <c r="A213" s="81"/>
-      <c r="B213" s="80"/>
-      <c r="C213" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="D213" s="80"/>
-      <c r="E213" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="F213" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="G213" s="86" t="s">
+    <row r="214" s="8" customFormat="1" ht="33" spans="1:7">
+      <c r="A214" s="85"/>
+      <c r="C214" s="84" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="214" s="8" customFormat="1" ht="33" spans="1:7">
-      <c r="A214" s="81"/>
-      <c r="C214" s="80" t="s">
+      <c r="D214" s="84"/>
+      <c r="E214" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="F214" s="8"/>
+      <c r="G214" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="D214" s="80"/>
-      <c r="E214" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="F214" s="8"/>
-      <c r="G214" s="87" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="215" s="8" customFormat="1" spans="1:7">
-      <c r="A215" s="81"/>
-      <c r="D215" s="80"/>
+      <c r="A215" s="85"/>
+      <c r="D215" s="84"/>
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
-      <c r="G215" s="88"/>
+      <c r="G215" s="93"/>
     </row>
     <row r="216" s="8" customFormat="1" spans="1:7">
-      <c r="A216" s="82"/>
-      <c r="C216" s="80"/>
-      <c r="D216" s="80"/>
-      <c r="G216" s="88"/>
+      <c r="A216" s="86"/>
+      <c r="C216" s="84"/>
+      <c r="D216" s="84"/>
+      <c r="G216" s="93"/>
     </row>
     <row r="217" s="2" customFormat="1" ht="33" spans="1:7">
-      <c r="A217" s="24" t="s">
+      <c r="A217" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B217" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C217" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E217" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217" s="2"/>
+      <c r="G217" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="B217" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C217" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E217" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F217" s="2"/>
-      <c r="G217" s="51" t="s">
+    </row>
+    <row r="218" s="2" customFormat="1" spans="1:7">
+      <c r="A218" s="27"/>
+      <c r="B218" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C218" s="26" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="218" s="2" customFormat="1" spans="1:7">
-      <c r="A218" s="26"/>
-      <c r="B218" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C218" s="25" t="s">
-        <v>222</v>
-      </c>
       <c r="D218" s="2"/>
-      <c r="E218" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F218" s="25" t="s">
+      <c r="E218" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F218" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G218" s="50"/>
+      <c r="G218" s="53"/>
     </row>
     <row r="219" s="2" customFormat="1" spans="1:7">
-      <c r="A219" s="26"/>
-      <c r="B219" s="25" t="s">
-        <v>173</v>
+      <c r="A219" s="27"/>
+      <c r="B219" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
-      <c r="G219" s="50"/>
+      <c r="G219" s="53"/>
     </row>
     <row r="220" s="2" customFormat="1" spans="1:7">
-      <c r="A220" s="26"/>
-      <c r="G220" s="50"/>
+      <c r="A220" s="27"/>
+      <c r="G220" s="53"/>
     </row>
     <row r="221" s="2" customFormat="1" spans="1:7">
-      <c r="A221" s="27"/>
-      <c r="G221" s="50"/>
+      <c r="A221" s="28"/>
+      <c r="G221" s="53"/>
     </row>
     <row r="222" s="5" customFormat="1" ht="33" spans="1:7">
-      <c r="A222" s="36" t="s">
+      <c r="A222" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C222" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D222" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="B222" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C222" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D222" s="37" t="s">
+      <c r="E222" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F222" s="5"/>
+      <c r="G222" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="E222" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F222" s="5"/>
-      <c r="G222" s="57" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="223" s="5" customFormat="1" spans="1:7">
-      <c r="A223" s="38"/>
-      <c r="B223" s="37" t="s">
+      <c r="A223" s="39"/>
+      <c r="B223" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C223" s="37" t="s">
+      <c r="C223" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
-      <c r="G223" s="58"/>
+      <c r="G223" s="61"/>
     </row>
     <row r="224" s="5" customFormat="1" spans="1:7">
-      <c r="A224" s="38"/>
-      <c r="G224" s="58"/>
+      <c r="A224" s="39"/>
+      <c r="G224" s="61"/>
     </row>
     <row r="225" s="5" customFormat="1" spans="1:7">
-      <c r="A225" s="38"/>
-      <c r="G225" s="58"/>
+      <c r="A225" s="39"/>
+      <c r="G225" s="61"/>
     </row>
     <row r="226" s="5" customFormat="1" spans="1:7">
-      <c r="A226" s="39"/>
-      <c r="G226" s="58"/>
+      <c r="A226" s="40"/>
+      <c r="G226" s="61"/>
     </row>
     <row r="227" s="5" customFormat="1" ht="33" spans="1:7">
-      <c r="A227" s="36" t="s">
-        <v>226</v>
+      <c r="A227" s="37" t="s">
+        <v>225</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C227" s="37" t="s">
-        <v>145</v>
+      <c r="C227" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="D227" s="5"/>
-      <c r="E227" s="37" t="s">
+      <c r="E227" s="38" t="s">
         <v>44</v>
       </c>
       <c r="F227" s="5"/>
-      <c r="G227" s="57" t="s">
-        <v>227</v>
+      <c r="G227" s="60" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="228" s="5" customFormat="1" spans="1:7">
-      <c r="A228" s="38"/>
+      <c r="A228" s="39"/>
       <c r="C228" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F228" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G228" s="61"/>
+    </row>
+    <row r="229" s="5" customFormat="1" spans="1:7">
+      <c r="A229" s="39"/>
+      <c r="G229" s="61"/>
+    </row>
+    <row r="230" s="5" customFormat="1" spans="1:7">
+      <c r="A230" s="39"/>
+      <c r="G230" s="61"/>
+    </row>
+    <row r="231" s="5" customFormat="1" spans="1:7">
+      <c r="A231" s="40"/>
+      <c r="G231" s="61"/>
+    </row>
+    <row r="232" s="3" customFormat="1" spans="1:7">
+      <c r="A232" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G228" s="58"/>
-    </row>
-    <row r="229" s="5" customFormat="1" spans="1:7">
-      <c r="A229" s="38"/>
-      <c r="G229" s="58"/>
-    </row>
-    <row r="230" s="5" customFormat="1" spans="1:7">
-      <c r="A230" s="38"/>
-      <c r="G230" s="58"/>
-    </row>
-    <row r="231" s="5" customFormat="1" spans="1:7">
-      <c r="A231" s="39"/>
-      <c r="G231" s="58"/>
-    </row>
-    <row r="232" s="3" customFormat="1" spans="1:7">
-      <c r="A232" s="28" t="s">
+      <c r="B232" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C232" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D232" s="3"/>
+      <c r="E232" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" s="3"/>
+      <c r="G232" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B232" s="29" t="s">
+    </row>
+    <row r="233" s="3" customFormat="1" spans="1:7">
+      <c r="A233" s="31"/>
+      <c r="B233" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C233" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D233" s="3"/>
+      <c r="E233" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F233" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G233" s="57"/>
+    </row>
+    <row r="234" s="3" customFormat="1" spans="1:7">
+      <c r="A234" s="31"/>
+      <c r="B234" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="C232" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D232" s="3"/>
-      <c r="E232" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F232" s="3"/>
-      <c r="G232" s="54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="233" s="3" customFormat="1" spans="1:7">
-      <c r="A233" s="30"/>
-      <c r="B233" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C233" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="D233" s="3"/>
-      <c r="E233" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="F233" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="G233" s="54"/>
-    </row>
-    <row r="234" s="3" customFormat="1" spans="1:7">
-      <c r="A234" s="30"/>
-      <c r="B234" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C234" s="29" t="s">
+      <c r="C234" s="30" t="s">
         <v>95</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
-      <c r="G234" s="54"/>
+      <c r="G234" s="57"/>
     </row>
     <row r="235" s="3" customFormat="1" spans="1:7">
-      <c r="A235" s="30"/>
-      <c r="B235" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="G235" s="54"/>
+      <c r="A235" s="31"/>
+      <c r="B235" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G235" s="57"/>
     </row>
     <row r="236" s="3" customFormat="1" spans="1:7">
-      <c r="A236" s="31"/>
-      <c r="G236" s="54"/>
+      <c r="A236" s="32"/>
+      <c r="G236" s="57"/>
     </row>
     <row r="237" s="5" customFormat="1" ht="33" spans="1:7">
-      <c r="A237" s="36" t="s">
+      <c r="A237" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C237" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D237" s="5"/>
+      <c r="E237" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F237" s="5"/>
+      <c r="G237" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="B237" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C237" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D237" s="5"/>
-      <c r="E237" s="37" t="s">
+    </row>
+    <row r="238" s="5" customFormat="1" spans="1:7">
+      <c r="A238" s="39"/>
+      <c r="C238" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F237" s="5"/>
-      <c r="G237" s="57" t="s">
+      <c r="F238" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G238" s="61"/>
+    </row>
+    <row r="239" s="5" customFormat="1" spans="1:7">
+      <c r="A239" s="39"/>
+      <c r="C239" s="38" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="238" s="5" customFormat="1" spans="1:7">
-      <c r="A238" s="38"/>
-      <c r="C238" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="D238" s="5"/>
-      <c r="E238" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F238" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G238" s="58"/>
-    </row>
-    <row r="239" s="5" customFormat="1" spans="1:7">
-      <c r="A239" s="38"/>
-      <c r="C239" s="37" t="s">
-        <v>235</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
-      <c r="G239" s="58"/>
+      <c r="G239" s="61"/>
     </row>
     <row r="240" s="5" customFormat="1" spans="1:7">
-      <c r="A240" s="38"/>
-      <c r="G240" s="58"/>
+      <c r="A240" s="39"/>
+      <c r="G240" s="61"/>
     </row>
     <row r="241" s="5" customFormat="1" spans="1:7">
-      <c r="A241" s="39"/>
-      <c r="G241" s="58"/>
+      <c r="A241" s="40"/>
+      <c r="G241" s="61"/>
     </row>
     <row r="242" s="4" customFormat="1" ht="33" spans="1:7">
-      <c r="A242" s="32" t="s">
+      <c r="A242" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B242" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C242" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D242" s="4"/>
+      <c r="E242" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F242" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G242" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="B242" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C242" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D242" s="4"/>
-      <c r="E242" s="33" t="s">
+    </row>
+    <row r="243" s="4" customFormat="1" spans="1:7">
+      <c r="A243" s="35"/>
+      <c r="B243" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C243" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D243" s="4"/>
+      <c r="E243" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F242" s="33" t="s">
+      <c r="F243" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G243" s="59"/>
+    </row>
+    <row r="244" s="4" customFormat="1" spans="1:7">
+      <c r="A244" s="35"/>
+      <c r="B244" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C244" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D244" s="4"/>
+      <c r="E244" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F244" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G242" s="55" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="243" s="4" customFormat="1" spans="1:7">
-      <c r="A243" s="34"/>
-      <c r="B243" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C243" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D243" s="4"/>
-      <c r="E243" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F243" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G243" s="56"/>
-    </row>
-    <row r="244" s="4" customFormat="1" spans="1:7">
-      <c r="A244" s="34"/>
-      <c r="B244" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C244" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D244" s="4"/>
-      <c r="E244" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F244" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G244" s="56"/>
+      <c r="G244" s="59"/>
     </row>
     <row r="245" s="4" customFormat="1" spans="1:7">
-      <c r="A245" s="34"/>
-      <c r="B245" s="33" t="s">
+      <c r="A245" s="35"/>
+      <c r="B245" s="34" t="s">
         <v>38</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
-      <c r="E245" s="33" t="s">
-        <v>126</v>
+      <c r="E245" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="F245" s="4"/>
-      <c r="G245" s="56"/>
+      <c r="G245" s="59"/>
     </row>
     <row r="246" s="4" customFormat="1" spans="1:7">
-      <c r="A246" s="35"/>
-      <c r="G246" s="56"/>
+      <c r="A246" s="36"/>
+      <c r="E246" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G246" s="59"/>
     </row>
     <row r="247" s="6" customFormat="1" ht="33" spans="1:7">
-      <c r="A247" s="40" t="s">
+      <c r="A247" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="B247" s="41" t="s">
+      <c r="B247" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="C247" s="41" t="s">
+      <c r="C247" s="42" t="s">
         <v>29</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E247" s="41" t="s">
+      <c r="E247" s="42" t="s">
         <v>240</v>
       </c>
       <c r="F247" s="6"/>
-      <c r="G247" s="59" t="s">
+      <c r="G247" s="62" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="248" s="6" customFormat="1" spans="1:7">
-      <c r="A248" s="42"/>
-      <c r="B248" s="41" t="s">
+      <c r="A248" s="43"/>
+      <c r="B248" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C248" s="41" t="s">
+      <c r="C248" s="42" t="s">
         <v>20</v>
       </c>
       <c r="D248" s="6"/>
-      <c r="E248" s="41" t="s">
+      <c r="E248" s="42" t="s">
         <v>64</v>
       </c>
       <c r="F248" s="6"/>
-      <c r="G248" s="60"/>
+      <c r="G248" s="63"/>
     </row>
     <row r="249" s="6" customFormat="1" spans="1:7">
-      <c r="A249" s="42"/>
-      <c r="B249" s="41" t="s">
+      <c r="A249" s="43"/>
+      <c r="B249" s="42" t="s">
         <v>60</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E249" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E249" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="G249" s="60"/>
+      <c r="G249" s="63"/>
     </row>
     <row r="250" s="6" customFormat="1" spans="1:7">
-      <c r="A250" s="42"/>
-      <c r="G250" s="60"/>
+      <c r="A250" s="43"/>
+      <c r="G250" s="63"/>
     </row>
     <row r="251" s="9" customFormat="1" spans="1:7">
-      <c r="A251" s="42"/>
-      <c r="G251" s="89"/>
+      <c r="A251" s="43"/>
+      <c r="G251" s="94"/>
     </row>
     <row r="252" s="10" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A252" s="83" t="s">
+      <c r="A252" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="B252" s="41" t="s">
+      <c r="B252" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C252" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E252" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F252" s="42"/>
+      <c r="G252" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="C252" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E252" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F252" s="41"/>
-      <c r="G252" s="90" t="s">
+    </row>
+    <row r="253" s="10" customFormat="1" ht="54" spans="1:7">
+      <c r="A253" s="88"/>
+      <c r="B253" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E253" s="42" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="253" s="10" customFormat="1" ht="54" spans="1:7">
-      <c r="A253" s="84"/>
-      <c r="B253" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C253" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E253" s="41" t="s">
+      <c r="F253" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="F253" s="41" t="s">
+      <c r="G253" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="G253" s="91" t="s">
+    </row>
+    <row r="254" s="10" customFormat="1" ht="18" spans="1:6">
+      <c r="A254" s="88"/>
+      <c r="B254" s="42"/>
+      <c r="C254" s="6" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="254" s="10" customFormat="1" ht="18" spans="1:6">
-      <c r="A254" s="84"/>
-      <c r="B254" s="41"/>
-      <c r="C254" s="6" t="s">
+      <c r="D254" s="6"/>
+      <c r="E254" s="42"/>
+      <c r="F254" s="42"/>
+    </row>
+    <row r="255" s="10" customFormat="1" ht="18" spans="1:6">
+      <c r="A255" s="88"/>
+      <c r="B255" s="42"/>
+      <c r="C255" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="D254" s="6"/>
-      <c r="E254" s="41"/>
-      <c r="F254" s="41"/>
-    </row>
-    <row r="255" s="10" customFormat="1" ht="18" spans="1:6">
-      <c r="A255" s="84"/>
-      <c r="B255" s="41"/>
-      <c r="C255" s="41" t="s">
+      <c r="D255" s="6"/>
+      <c r="E255" s="42"/>
+      <c r="F255" s="42"/>
+    </row>
+    <row r="256" s="10" customFormat="1" ht="18" spans="1:6">
+      <c r="A256" s="89"/>
+      <c r="B256" s="42"/>
+      <c r="C256" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D256" s="6"/>
+      <c r="E256" s="42"/>
+      <c r="F256" s="42"/>
+    </row>
+    <row r="257" s="11" customFormat="1" spans="1:7">
+      <c r="A257" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="D255" s="6"/>
-      <c r="E255" s="41"/>
-      <c r="F255" s="41"/>
-    </row>
-    <row r="256" s="10" customFormat="1" ht="18" spans="1:6">
-      <c r="A256" s="85"/>
-      <c r="B256" s="41"/>
-      <c r="C256" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D256" s="6"/>
-      <c r="E256" s="41"/>
-      <c r="F256" s="41"/>
-    </row>
-    <row r="257" s="11" customFormat="1" spans="1:7">
-      <c r="A257" s="92" t="s">
+      <c r="B257" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="C257" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="D257" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G257" s="128"/>
+    </row>
+    <row r="258" s="4" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A258" s="35"/>
+      <c r="B258" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C258" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D258" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B257" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="C257" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="D257" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G257" s="112"/>
-    </row>
-    <row r="258" s="4" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A258" s="34"/>
-      <c r="B258" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C258" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D258" s="33" t="s">
+      <c r="E258" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G258" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="E258" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G258" s="55" t="s">
+    </row>
+    <row r="259" s="4" customFormat="1" ht="33" spans="1:7">
+      <c r="A259" s="35"/>
+      <c r="C259" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E259" s="129" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="259" s="4" customFormat="1" ht="33" spans="1:7">
-      <c r="A259" s="34"/>
-      <c r="C259" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E259" s="113" t="s">
+      <c r="F259" s="129" t="s">
         <v>253</v>
       </c>
-      <c r="F259" s="113" t="s">
+      <c r="G259" s="59"/>
+    </row>
+    <row r="260" s="4" customFormat="1" spans="1:7">
+      <c r="A260" s="35"/>
+      <c r="G260" s="59"/>
+    </row>
+    <row r="261" s="4" customFormat="1" spans="1:7">
+      <c r="A261" s="36"/>
+      <c r="G261" s="59"/>
+    </row>
+    <row r="262" s="7" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A262" s="99" t="s">
         <v>254</v>
       </c>
-      <c r="G259" s="56"/>
-    </row>
-    <row r="260" s="4" customFormat="1" spans="1:7">
-      <c r="A260" s="34"/>
-      <c r="G260" s="56"/>
-    </row>
-    <row r="261" s="4" customFormat="1" spans="1:7">
-      <c r="A261" s="35"/>
-      <c r="G261" s="56"/>
-    </row>
-    <row r="262" s="7" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A262" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="B262" s="45" t="s">
+      <c r="B262" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D262" s="45" t="s">
+      <c r="D262" s="46" t="s">
         <v>52</v>
       </c>
       <c r="E262" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F262" s="114" t="s">
+      <c r="F262" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="G262" s="77"/>
+      <c r="G262" s="131" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="263" s="7" customFormat="1" spans="1:7">
-      <c r="A263" s="95"/>
+      <c r="A263" s="100"/>
       <c r="B263" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E263" s="45" t="s">
+      <c r="E263" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G263" s="77" t="s">
+      <c r="G263" s="131"/>
+    </row>
+    <row r="264" s="7" customFormat="1" spans="1:7">
+      <c r="A264" s="100"/>
+      <c r="B264" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C264" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G264" s="65"/>
+    </row>
+    <row r="265" s="7" customFormat="1" spans="1:7">
+      <c r="A265" s="100"/>
+      <c r="B265" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C265" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G265" s="65"/>
+    </row>
+    <row r="266" s="7" customFormat="1" spans="1:7">
+      <c r="A266" s="101"/>
+      <c r="G266" s="65"/>
+    </row>
+    <row r="267" s="12" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A267" s="102" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="264" s="7" customFormat="1" spans="1:7">
-      <c r="A264" s="95"/>
-      <c r="B264" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C264" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="G264" s="62"/>
-    </row>
-    <row r="265" s="7" customFormat="1" spans="1:7">
-      <c r="A265" s="95"/>
-      <c r="B265" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C265" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G265" s="62"/>
-    </row>
-    <row r="266" s="7" customFormat="1" spans="1:7">
-      <c r="A266" s="96"/>
-      <c r="G266" s="62"/>
-    </row>
-    <row r="267" s="12" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A267" s="97" t="s">
+      <c r="B267" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C267" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="G267" s="115" t="s">
+      <c r="D267" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="E267" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="G267" s="132" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="268" s="12" customFormat="1" spans="1:7">
+      <c r="A268" s="102"/>
+      <c r="B268" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C268" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D268" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E268" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" s="103"/>
+      <c r="G268" s="133" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="269" s="12" customFormat="1" spans="1:7">
+      <c r="A269" s="102"/>
+      <c r="C269" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="E269" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G269" s="133"/>
+    </row>
+    <row r="270" s="12" customFormat="1" spans="1:7">
+      <c r="A270" s="102"/>
+      <c r="G270" s="133"/>
+    </row>
+    <row r="271" s="12" customFormat="1" spans="1:7">
+      <c r="A271" s="102"/>
+      <c r="G271" s="133"/>
+    </row>
+    <row r="272" s="12" customFormat="1" spans="1:7">
+      <c r="A272" s="104" t="s">
+        <v>261</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C272" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="D272" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="E272" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="G272" s="133" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="273" s="12" customFormat="1" spans="1:7">
+      <c r="A273" s="105"/>
+      <c r="B273" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="E273" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="G273" s="133"/>
+    </row>
+    <row r="274" s="12" customFormat="1" spans="1:7">
+      <c r="A274" s="105"/>
+      <c r="B274" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="C274" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="F274" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="G274" s="134"/>
+    </row>
+    <row r="275" s="12" customFormat="1" spans="1:7">
+      <c r="A275" s="105"/>
+      <c r="B275" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="E275" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="G275" s="134"/>
+    </row>
+    <row r="276" s="12" customFormat="1" spans="1:7">
+      <c r="A276" s="106"/>
+      <c r="G276" s="134"/>
+    </row>
+    <row r="277" s="12" customFormat="1" spans="1:7">
+      <c r="A277" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="B277" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C277" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="D277" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G277" s="133" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="278" s="12" customFormat="1" spans="1:7">
+      <c r="A278" s="107"/>
+      <c r="B278" s="103"/>
+      <c r="C278" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="E278" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G278" s="133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="279" s="12" customFormat="1" spans="1:7">
+      <c r="A279" s="107"/>
+      <c r="B279" s="103"/>
+      <c r="C279" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G279" s="133" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="280" s="12" customFormat="1" spans="1:7">
+      <c r="A280" s="107"/>
+      <c r="C280" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="G280" s="134"/>
+    </row>
+    <row r="281" s="12" customFormat="1" spans="1:7">
+      <c r="A281" s="107"/>
+      <c r="G281" s="134"/>
+    </row>
+    <row r="282" s="13" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A282" s="108" t="s">
+        <v>269</v>
+      </c>
+      <c r="B282" s="109"/>
+      <c r="C282" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="E282" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G282" s="135" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="283" s="13" customFormat="1" spans="1:7">
+      <c r="A283" s="111"/>
+      <c r="B283" s="109"/>
+      <c r="C283" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="E283" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G283" s="136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="284" s="13" customFormat="1" spans="1:7">
+      <c r="A284" s="111"/>
+      <c r="B284" s="109"/>
+      <c r="C284" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="E284" s="110" t="s">
+        <v>258</v>
+      </c>
+      <c r="G284" s="137"/>
+    </row>
+    <row r="285" s="13" customFormat="1" spans="1:7">
+      <c r="A285" s="111"/>
+      <c r="B285" s="109"/>
+      <c r="C285" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="G285" s="137"/>
+    </row>
+    <row r="286" s="13" customFormat="1" spans="1:7">
+      <c r="A286" s="111"/>
+      <c r="B286" s="109"/>
+      <c r="C286" s="110" t="s">
+        <v>273</v>
+      </c>
+      <c r="G286" s="137"/>
+    </row>
+    <row r="287" s="6" customFormat="1" spans="1:7">
+      <c r="A287" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="B287" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G287" s="138" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="288" s="6" customFormat="1" spans="1:7">
+      <c r="A288" s="43"/>
+      <c r="B288" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E288" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F288" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G288" s="138" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="289" s="6" customFormat="1" spans="1:7">
+      <c r="A289" s="43"/>
+      <c r="G289" s="138" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="290" s="6" customFormat="1" spans="1:7">
+      <c r="A290" s="43"/>
+      <c r="G290" s="138" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="291" s="6" customFormat="1" spans="1:7">
+      <c r="A291" s="44"/>
+      <c r="G291" s="63"/>
+    </row>
+    <row r="292" s="4" customFormat="1" spans="1:7">
+      <c r="A292" s="112" t="s">
+        <v>280</v>
+      </c>
+      <c r="B292" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="E292" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G292" s="82" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="293" s="4" customFormat="1" spans="1:7">
+      <c r="A293" s="114"/>
+      <c r="B293" s="115"/>
+      <c r="E293" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F293" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G293" s="82" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="294" s="4" customFormat="1" spans="1:7">
+      <c r="A294" s="114"/>
+      <c r="B294" s="115"/>
+      <c r="E294" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G294" s="82" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="295" s="4" customFormat="1" spans="1:7">
+      <c r="A295" s="114"/>
+      <c r="B295" s="115"/>
+      <c r="G295" s="59"/>
+    </row>
+    <row r="296" s="4" customFormat="1" spans="1:7">
+      <c r="A296" s="114"/>
+      <c r="B296" s="115"/>
+      <c r="G296" s="59"/>
+    </row>
+    <row r="297" s="14" customFormat="1" spans="1:7">
+      <c r="A297" s="116" t="s">
+        <v>285</v>
+      </c>
+      <c r="B297" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="C297" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G297" s="139" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="298" s="14" customFormat="1" spans="1:7">
+      <c r="A298" s="118"/>
+      <c r="B298" s="117"/>
+      <c r="C298" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E298" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="F298" s="140" t="s">
+        <v>118</v>
+      </c>
+      <c r="G298" s="139" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="299" s="14" customFormat="1" spans="1:7">
+      <c r="A299" s="118"/>
+      <c r="B299" s="117"/>
+      <c r="C299" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E299" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G299" s="141"/>
+    </row>
+    <row r="300" s="14" customFormat="1" spans="1:7">
+      <c r="A300" s="118"/>
+      <c r="B300" s="117"/>
+      <c r="G300" s="141"/>
+    </row>
+    <row r="301" s="14" customFormat="1" spans="1:7">
+      <c r="A301" s="118"/>
+      <c r="B301" s="117"/>
+      <c r="G301" s="141"/>
+    </row>
+    <row r="302" s="15" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A302" s="119" t="s">
+        <v>288</v>
+      </c>
+      <c r="G302" s="142" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="303" s="15" customFormat="1" spans="1:7">
+      <c r="A303" s="120"/>
+      <c r="G303" s="143" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="304" s="15" customFormat="1" ht="33" spans="1:7">
+      <c r="A304" s="120"/>
+      <c r="G304" s="142" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="305" s="15" customFormat="1" spans="1:7">
+      <c r="A305" s="120"/>
+      <c r="G305" s="143" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="306" s="15" customFormat="1" spans="1:7">
+      <c r="A306" s="120"/>
+      <c r="G306" s="144"/>
+    </row>
+    <row r="307" s="16" customFormat="1" spans="1:7">
+      <c r="A307" s="121" t="s">
+        <v>293</v>
+      </c>
+      <c r="B307" s="122"/>
+      <c r="G307" s="145" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="308" s="7" customFormat="1" spans="1:7">
+      <c r="A308" s="123"/>
+      <c r="B308" s="124"/>
+      <c r="G308" s="81" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="309" s="7" customFormat="1" spans="1:7">
+      <c r="A309" s="123"/>
+      <c r="B309" s="124"/>
+      <c r="G309" s="81" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="310" s="7" customFormat="1" spans="1:7">
+      <c r="A310" s="123"/>
+      <c r="B310" s="124"/>
+      <c r="G310" s="81" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="311" s="7" customFormat="1" spans="1:7">
+      <c r="A311" s="123"/>
+      <c r="B311" s="124"/>
+      <c r="G311" s="65"/>
+    </row>
+    <row r="312" s="2" customFormat="1" spans="1:7">
+      <c r="A312" s="125" t="s">
+        <v>298</v>
+      </c>
+      <c r="B312" s="126"/>
+      <c r="G312" s="146" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="313" s="2" customFormat="1" spans="1:7">
+      <c r="A313" s="125"/>
+      <c r="B313" s="126"/>
+      <c r="G313" s="146" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="314" s="2" customFormat="1" spans="1:7">
+      <c r="A314" s="125"/>
+      <c r="B314" s="126"/>
+      <c r="G314" s="53"/>
+    </row>
+    <row r="315" s="2" customFormat="1" spans="1:7">
+      <c r="A315" s="125"/>
+      <c r="B315" s="126"/>
+      <c r="G315" s="53"/>
+    </row>
+    <row r="316" s="2" customFormat="1" spans="1:7">
+      <c r="A316" s="125"/>
+      <c r="B316" s="126"/>
+      <c r="G316" s="53"/>
+    </row>
+    <row r="317" s="12" customFormat="1" spans="1:7">
+      <c r="A317" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="B317" s="127"/>
+      <c r="C317" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="G317" s="133" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="318" s="12" customFormat="1" spans="1:7">
+      <c r="A318" s="120"/>
+      <c r="B318" s="127"/>
+      <c r="G318" s="133" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="319" s="12" customFormat="1" spans="1:7">
+      <c r="A319" s="120"/>
+      <c r="B319" s="127"/>
+      <c r="G319" s="133" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="320" s="12" customFormat="1" spans="1:7">
+      <c r="A320" s="120"/>
+      <c r="B320" s="127"/>
+      <c r="G320" s="134"/>
+    </row>
+    <row r="321" s="12" customFormat="1" spans="1:7">
+      <c r="A321" s="120"/>
+      <c r="B321" s="127"/>
+      <c r="G321" s="134"/>
+    </row>
+    <row r="322" s="12" customFormat="1" spans="1:7">
+      <c r="A322" s="147" t="s">
+        <v>306</v>
+      </c>
+      <c r="B322" s="127"/>
+      <c r="G322" s="133" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="323" s="12" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A323" s="147"/>
+      <c r="B323" s="127"/>
+      <c r="G323" s="132" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="324" s="12" customFormat="1" spans="1:7">
+      <c r="A324" s="147"/>
+      <c r="B324" s="127"/>
+      <c r="G324" s="132" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="325" s="12" customFormat="1" spans="1:7">
+      <c r="A325" s="147"/>
+      <c r="B325" s="127"/>
+      <c r="G325" s="134"/>
+    </row>
+    <row r="326" s="12" customFormat="1" spans="1:7">
+      <c r="A326" s="147"/>
+      <c r="B326" s="127"/>
+      <c r="G326" s="134"/>
+    </row>
+    <row r="327" s="12" customFormat="1" spans="1:7">
+      <c r="A327" s="147" t="s">
+        <v>310</v>
+      </c>
+      <c r="B327" s="127"/>
+      <c r="G327" s="133" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="328" s="12" customFormat="1" spans="1:7">
+      <c r="A328" s="148"/>
+      <c r="B328" s="127"/>
+      <c r="G328" s="132" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="329" s="12" customFormat="1" spans="1:7">
+      <c r="A329" s="148"/>
+      <c r="B329" s="127"/>
+      <c r="G329" s="134"/>
+    </row>
+    <row r="330" s="12" customFormat="1" spans="1:7">
+      <c r="A330" s="148"/>
+      <c r="B330" s="127"/>
+      <c r="G330" s="134"/>
+    </row>
+    <row r="331" s="17" customFormat="1" spans="1:7">
+      <c r="A331" s="148"/>
+      <c r="B331" s="149"/>
+      <c r="G331" s="166"/>
+    </row>
+    <row r="332" s="18" customFormat="1" spans="1:7">
+      <c r="A332" s="150" t="s">
+        <v>313</v>
+      </c>
+      <c r="B332" s="151"/>
+      <c r="G332" s="167" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="333" s="18" customFormat="1" spans="1:7">
+      <c r="A333" s="152"/>
+      <c r="B333" s="151"/>
+      <c r="G333" s="168"/>
+    </row>
+    <row r="334" s="18" customFormat="1" spans="1:7">
+      <c r="A334" s="152"/>
+      <c r="B334" s="151"/>
+      <c r="G334" s="168"/>
+    </row>
+    <row r="335" s="18" customFormat="1" spans="1:7">
+      <c r="A335" s="152"/>
+      <c r="B335" s="151"/>
+      <c r="G335" s="168"/>
+    </row>
+    <row r="336" s="18" customFormat="1" spans="1:7">
+      <c r="A336" s="152"/>
+      <c r="B336" s="151"/>
+      <c r="G336" s="168"/>
+    </row>
+    <row r="337" s="19" customFormat="1" spans="1:7">
+      <c r="A337" s="153" t="s">
+        <v>315</v>
+      </c>
+      <c r="G337" s="169" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="338" s="19" customFormat="1" spans="1:7">
+      <c r="A338" s="154"/>
+      <c r="G338" s="169" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="339" s="19" customFormat="1" spans="1:7">
+      <c r="A339" s="154"/>
+      <c r="G339" s="170"/>
+    </row>
+    <row r="340" s="19" customFormat="1" spans="1:7">
+      <c r="A340" s="154"/>
+      <c r="G340" s="170"/>
+    </row>
+    <row r="341" s="19" customFormat="1" spans="1:7">
+      <c r="A341" s="155"/>
+      <c r="G341" s="170"/>
+    </row>
+    <row r="342" s="19" customFormat="1" spans="1:7">
+      <c r="A342" s="156" t="s">
+        <v>318</v>
+      </c>
+      <c r="G342" s="169" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="343" s="19" customFormat="1" spans="1:7">
+      <c r="A343" s="154"/>
+      <c r="G343" s="169" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="344" s="19" customFormat="1" spans="1:7">
+      <c r="A344" s="154"/>
+      <c r="G344" s="170"/>
+    </row>
+    <row r="345" s="19" customFormat="1" spans="1:7">
+      <c r="A345" s="154"/>
+      <c r="G345" s="170"/>
+    </row>
+    <row r="346" s="19" customFormat="1" spans="1:7">
+      <c r="A346" s="155"/>
+      <c r="G346" s="170"/>
+    </row>
+    <row r="347" hidden="1"/>
+    <row r="348" hidden="1"/>
+    <row r="349" hidden="1"/>
+    <row r="350" hidden="1"/>
+    <row r="351" hidden="1"/>
+    <row r="352" s="20" customFormat="1" spans="1:7">
+      <c r="A352" s="157" t="s">
+        <v>320</v>
+      </c>
+      <c r="G352" s="171" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="353" s="20" customFormat="1" spans="1:7">
+      <c r="A353" s="158"/>
+      <c r="G353" s="171" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="354" s="20" customFormat="1" spans="1:7">
+      <c r="A354" s="158"/>
+      <c r="G354" s="172"/>
+    </row>
+    <row r="355" s="20" customFormat="1" spans="1:7">
+      <c r="A355" s="158"/>
+      <c r="G355" s="172"/>
+    </row>
+    <row r="356" s="20" customFormat="1" spans="1:7">
+      <c r="A356" s="159"/>
+      <c r="G356" s="172"/>
+    </row>
+    <row r="357" s="20" customFormat="1" spans="1:7">
+      <c r="A357" s="157" t="s">
+        <v>323</v>
+      </c>
+      <c r="G357" s="171" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="358" s="20" customFormat="1" spans="1:7">
+      <c r="A358" s="158"/>
+      <c r="G358" s="172" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="359" s="20" customFormat="1" spans="1:7">
+      <c r="A359" s="158"/>
+      <c r="G359" s="172"/>
+    </row>
+    <row r="360" s="20" customFormat="1" spans="1:7">
+      <c r="A360" s="158"/>
+      <c r="G360" s="172"/>
+    </row>
+    <row r="361" s="20" customFormat="1" spans="1:7">
+      <c r="A361" s="158"/>
+      <c r="G361" s="172"/>
+    </row>
+    <row r="362" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A362" s="160" t="s">
+        <v>325</v>
+      </c>
+      <c r="B362" s="161"/>
+      <c r="G362" s="173" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="363" s="20" customFormat="1" spans="1:7">
+      <c r="A363" s="162"/>
+      <c r="B363" s="161"/>
+      <c r="G363" s="171" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="364" s="20" customFormat="1" spans="1:7">
+      <c r="A364" s="162"/>
+      <c r="B364" s="161"/>
+      <c r="G364" s="172"/>
+    </row>
+    <row r="365" s="20" customFormat="1" spans="1:7">
+      <c r="A365" s="162"/>
+      <c r="B365" s="161"/>
+      <c r="G365" s="172"/>
+    </row>
+    <row r="366" s="20" customFormat="1" spans="1:7">
+      <c r="A366" s="163"/>
+      <c r="B366" s="161"/>
+      <c r="G366" s="172"/>
+    </row>
+    <row r="367" s="20" customFormat="1" spans="1:7">
+      <c r="A367" s="164" t="s">
+        <v>327</v>
+      </c>
+      <c r="B367" s="161"/>
+      <c r="G367" s="171" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="368" s="20" customFormat="1" spans="1:7">
+      <c r="A368" s="162"/>
+      <c r="B368" s="161"/>
+      <c r="G368" s="172" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="369" s="20" customFormat="1" spans="1:7">
+      <c r="A369" s="162"/>
+      <c r="B369" s="161"/>
+      <c r="G369" s="172"/>
+    </row>
+    <row r="370" s="20" customFormat="1" spans="1:7">
+      <c r="A370" s="162"/>
+      <c r="B370" s="161"/>
+      <c r="G370" s="172"/>
+    </row>
+    <row r="371" s="20" customFormat="1" spans="1:7">
+      <c r="A371" s="162"/>
+      <c r="B371" s="161"/>
+      <c r="G371" s="172"/>
+    </row>
+    <row r="372" s="20" customFormat="1" spans="1:7">
+      <c r="A372" s="150" t="s">
+        <v>329</v>
+      </c>
+      <c r="B372" s="161"/>
+      <c r="G372" s="171" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="373" s="20" customFormat="1" spans="1:7">
+      <c r="A373" s="152"/>
+      <c r="B373" s="161"/>
+      <c r="G373" s="171" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="374" s="20" customFormat="1" spans="1:7">
+      <c r="A374" s="152"/>
+      <c r="B374" s="161"/>
+      <c r="G374" s="172"/>
+    </row>
+    <row r="375" s="20" customFormat="1" spans="1:7">
+      <c r="A375" s="152"/>
+      <c r="B375" s="161"/>
+      <c r="G375" s="172"/>
+    </row>
+    <row r="376" s="20" customFormat="1" spans="1:7">
+      <c r="A376" s="152"/>
+      <c r="B376" s="161"/>
+      <c r="G376" s="172"/>
+    </row>
+    <row r="377" s="20" customFormat="1" spans="1:7">
+      <c r="A377" s="165" t="s">
+        <v>331</v>
+      </c>
+      <c r="B377" s="161"/>
+      <c r="G377" s="172" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="378" s="20" customFormat="1" spans="1:7">
+      <c r="A378" s="162"/>
+      <c r="B378" s="161"/>
+      <c r="G378" s="172" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="379" s="20" customFormat="1" spans="1:7">
+      <c r="A379" s="162"/>
+      <c r="B379" s="161"/>
+      <c r="G379" s="172"/>
+    </row>
+    <row r="380" s="20" customFormat="1" spans="1:7">
+      <c r="A380" s="162"/>
+      <c r="B380" s="161"/>
+      <c r="G380" s="172"/>
+    </row>
+    <row r="381" s="20" customFormat="1" spans="1:7">
+      <c r="A381" s="162"/>
+      <c r="B381" s="161"/>
+      <c r="G381" s="172"/>
+    </row>
+    <row r="382" s="20" customFormat="1" spans="1:7">
+      <c r="A382" s="165" t="s">
+        <v>334</v>
+      </c>
+      <c r="B382" s="161"/>
+      <c r="G382" s="172" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="383" s="20" customFormat="1" spans="1:7">
+      <c r="A383" s="162"/>
+      <c r="B383" s="161"/>
+      <c r="G383" s="171" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="384" s="20" customFormat="1" spans="1:7">
+      <c r="A384" s="162"/>
+      <c r="B384" s="161"/>
+      <c r="G384" s="172"/>
+    </row>
+    <row r="385" s="20" customFormat="1" spans="1:7">
+      <c r="A385" s="162"/>
+      <c r="B385" s="161"/>
+      <c r="G385" s="172"/>
+    </row>
+    <row r="386" s="20" customFormat="1" spans="1:7">
+      <c r="A386" s="163"/>
+      <c r="B386" s="161"/>
+      <c r="G386" s="172"/>
+    </row>
+    <row r="387" s="6" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A387" s="174" t="s">
+        <v>337</v>
+      </c>
+      <c r="G387" s="62" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="268" s="12" customFormat="1" spans="1:7">
-      <c r="A268" s="97"/>
-      <c r="G268" s="116" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="269" s="12" customFormat="1" spans="1:7">
-      <c r="A269" s="97"/>
-      <c r="G269" s="116"/>
-    </row>
-    <row r="270" s="12" customFormat="1" spans="1:7">
-      <c r="A270" s="97"/>
-      <c r="G270" s="116"/>
-    </row>
-    <row r="271" s="12" customFormat="1" spans="1:7">
-      <c r="A271" s="97"/>
-      <c r="G271" s="116"/>
-    </row>
-    <row r="272" s="12" customFormat="1" spans="1:7">
-      <c r="A272" s="98" t="s">
-        <v>259</v>
-      </c>
-      <c r="G272" s="116" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="273" s="12" customFormat="1" spans="1:7">
-      <c r="A273" s="99"/>
-      <c r="G273" s="116" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="274" s="12" customFormat="1" spans="1:7">
-      <c r="A274" s="99"/>
-      <c r="G274" s="117"/>
-    </row>
-    <row r="275" s="12" customFormat="1" spans="1:7">
-      <c r="A275" s="99"/>
-      <c r="G275" s="117"/>
-    </row>
-    <row r="276" s="12" customFormat="1" spans="1:7">
-      <c r="A276" s="100"/>
-      <c r="G276" s="117"/>
-    </row>
-    <row r="277" s="12" customFormat="1" spans="1:7">
-      <c r="A277" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="G277" s="116" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="278" s="12" customFormat="1" spans="1:7">
-      <c r="A278" s="101"/>
-      <c r="G278" s="117" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="279" s="12" customFormat="1" spans="1:7">
-      <c r="A279" s="101"/>
-      <c r="G279" s="116" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="280" s="12" customFormat="1" spans="1:7">
-      <c r="A280" s="101"/>
-      <c r="G280" s="117"/>
-    </row>
-    <row r="281" s="12" customFormat="1" spans="1:7">
-      <c r="A281" s="101"/>
-      <c r="G281" s="117"/>
-    </row>
-    <row r="282" s="13" customFormat="1" spans="1:7">
-      <c r="A282" s="102" t="s">
-        <v>265</v>
-      </c>
-      <c r="B282" s="103"/>
-      <c r="G282" s="118" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="283" s="13" customFormat="1" spans="1:7">
-      <c r="A283" s="104"/>
-      <c r="B283" s="103"/>
-      <c r="G283" s="118" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="284" s="13" customFormat="1" spans="1:7">
-      <c r="A284" s="104"/>
-      <c r="B284" s="103"/>
-      <c r="G284" s="119"/>
-    </row>
-    <row r="285" s="13" customFormat="1" spans="1:7">
-      <c r="A285" s="104"/>
-      <c r="B285" s="103"/>
-      <c r="G285" s="119"/>
-    </row>
-    <row r="286" s="13" customFormat="1" spans="1:7">
-      <c r="A286" s="104"/>
-      <c r="B286" s="103"/>
-      <c r="G286" s="119"/>
-    </row>
-    <row r="287" s="12" customFormat="1" spans="1:7">
-      <c r="A287" s="105" t="s">
-        <v>267</v>
-      </c>
-      <c r="G287" s="116" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="288" s="12" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A288" s="105"/>
-      <c r="G288" s="115" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="289" s="12" customFormat="1" spans="1:7">
-      <c r="A289" s="105"/>
-      <c r="G289" s="115" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="290" s="12" customFormat="1" spans="1:7">
-      <c r="A290" s="105"/>
-      <c r="G290" s="117"/>
-    </row>
-    <row r="291" s="12" customFormat="1" spans="1:7">
-      <c r="A291" s="106"/>
-      <c r="G291" s="117"/>
-    </row>
-    <row r="292" s="12" customFormat="1" spans="1:7">
-      <c r="A292" s="98" t="s">
-        <v>271</v>
-      </c>
-      <c r="G292" s="116" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="293" s="12" customFormat="1" spans="1:7">
-      <c r="A293" s="99"/>
-      <c r="G293" s="115" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="294" s="12" customFormat="1" spans="1:7">
-      <c r="A294" s="99"/>
-      <c r="G294" s="117"/>
-    </row>
-    <row r="295" s="12" customFormat="1" spans="1:7">
-      <c r="A295" s="99"/>
-      <c r="G295" s="117"/>
-    </row>
-    <row r="296" s="14" customFormat="1" spans="1:7">
-      <c r="A296" s="99"/>
-      <c r="G296" s="120"/>
-    </row>
-    <row r="297" s="15" customFormat="1" spans="1:7">
-      <c r="A297" s="107" t="s">
-        <v>274</v>
-      </c>
-      <c r="G297" s="121" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="298" s="15" customFormat="1" spans="1:7">
-      <c r="A298" s="108"/>
-      <c r="G298" s="121" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="299" s="15" customFormat="1" spans="1:7">
-      <c r="A299" s="108"/>
-      <c r="G299" s="122"/>
-    </row>
-    <row r="300" s="15" customFormat="1" spans="1:7">
-      <c r="A300" s="108"/>
-      <c r="G300" s="122"/>
-    </row>
-    <row r="301" s="15" customFormat="1" spans="1:7">
-      <c r="A301" s="109"/>
-      <c r="G301" s="122"/>
-    </row>
-    <row r="302" s="11" customFormat="1" spans="1:7">
-      <c r="A302" s="92" t="s">
-        <v>277</v>
-      </c>
-      <c r="G302" s="123" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="303" s="4" customFormat="1" spans="1:7">
-      <c r="A303" s="34"/>
-      <c r="G303" s="78" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="304" s="4" customFormat="1" spans="1:7">
-      <c r="A304" s="34"/>
-      <c r="G304" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="305" s="4" customFormat="1" spans="1:7">
-      <c r="A305" s="34"/>
-      <c r="G305" s="56"/>
-    </row>
-    <row r="306" s="4" customFormat="1" spans="1:7">
-      <c r="A306" s="34"/>
-      <c r="G306" s="56"/>
-    </row>
-    <row r="307" s="15" customFormat="1" spans="1:7">
-      <c r="A307" s="107" t="s">
-        <v>281</v>
-      </c>
-      <c r="G307" s="121" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="308" s="15" customFormat="1" spans="1:7">
-      <c r="A308" s="108"/>
-      <c r="G308" s="121" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="309" s="15" customFormat="1" spans="1:7">
-      <c r="A309" s="108"/>
-      <c r="G309" s="122"/>
-    </row>
-    <row r="310" s="15" customFormat="1" spans="1:7">
-      <c r="A310" s="108"/>
-      <c r="G310" s="122"/>
-    </row>
-    <row r="311" s="15" customFormat="1" spans="1:7">
-      <c r="A311" s="109"/>
-      <c r="G311" s="122"/>
-    </row>
-    <row r="312" s="6" customFormat="1" spans="1:7">
-      <c r="A312" s="69" t="s">
-        <v>283</v>
-      </c>
-      <c r="G312" s="124" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="313" s="6" customFormat="1" spans="1:7">
-      <c r="A313" s="42"/>
-      <c r="G313" s="124" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="314" s="6" customFormat="1" spans="1:7">
-      <c r="A314" s="42"/>
-      <c r="G314" s="60"/>
-    </row>
-    <row r="315" s="6" customFormat="1" spans="1:7">
-      <c r="A315" s="42"/>
-      <c r="G315" s="60"/>
-    </row>
-    <row r="316" s="6" customFormat="1" spans="1:7">
-      <c r="A316" s="43"/>
-      <c r="G316" s="60"/>
-    </row>
-    <row r="317" s="16" customFormat="1" spans="1:7">
-      <c r="A317" s="110" t="s">
-        <v>286</v>
-      </c>
-      <c r="G317" s="125" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="318" s="16" customFormat="1" spans="1:7">
-      <c r="A318" s="111"/>
-      <c r="G318" s="125" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="319" s="16" customFormat="1" spans="1:7">
-      <c r="A319" s="111"/>
-      <c r="G319" s="126"/>
-    </row>
-    <row r="320" s="16" customFormat="1" spans="1:7">
-      <c r="A320" s="111"/>
-      <c r="G320" s="126"/>
-    </row>
-    <row r="321" s="16" customFormat="1" spans="1:7">
-      <c r="A321" s="127"/>
-      <c r="G321" s="126"/>
-    </row>
-    <row r="322" s="16" customFormat="1" spans="1:7">
-      <c r="A322" s="110" t="s">
-        <v>289</v>
-      </c>
-      <c r="G322" s="125" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="323" s="16" customFormat="1" spans="1:7">
-      <c r="A323" s="111"/>
-      <c r="G323" s="126" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="324" s="16" customFormat="1" spans="1:7">
-      <c r="A324" s="111"/>
-      <c r="G324" s="126"/>
-    </row>
-    <row r="325" s="16" customFormat="1" spans="1:7">
-      <c r="A325" s="111"/>
-      <c r="G325" s="126"/>
-    </row>
-    <row r="326" s="16" customFormat="1" spans="1:7">
-      <c r="A326" s="111"/>
-      <c r="G326" s="126"/>
-    </row>
-    <row r="327" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A327" s="128" t="s">
-        <v>291</v>
-      </c>
-      <c r="B327" s="129"/>
-      <c r="G327" s="152" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="328" s="16" customFormat="1" spans="1:7">
-      <c r="A328" s="130"/>
-      <c r="B328" s="129"/>
-      <c r="G328" s="125" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="329" s="16" customFormat="1" spans="1:7">
-      <c r="A329" s="130"/>
-      <c r="B329" s="129"/>
-      <c r="G329" s="126"/>
-    </row>
-    <row r="330" s="16" customFormat="1" spans="1:7">
-      <c r="A330" s="130"/>
-      <c r="B330" s="129"/>
-      <c r="G330" s="126"/>
-    </row>
-    <row r="331" s="16" customFormat="1" spans="1:7">
-      <c r="A331" s="131"/>
-      <c r="B331" s="129"/>
-      <c r="G331" s="126"/>
-    </row>
-    <row r="332" s="16" customFormat="1" spans="1:7">
-      <c r="A332" s="132" t="s">
-        <v>293</v>
-      </c>
-      <c r="B332" s="129"/>
-      <c r="G332" s="125" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="333" s="16" customFormat="1" spans="1:7">
-      <c r="A333" s="130"/>
-      <c r="B333" s="129"/>
-      <c r="G333" s="126" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="334" s="16" customFormat="1" spans="1:7">
-      <c r="A334" s="130"/>
-      <c r="B334" s="129"/>
-      <c r="G334" s="126"/>
-    </row>
-    <row r="335" s="16" customFormat="1" spans="1:7">
-      <c r="A335" s="130"/>
-      <c r="B335" s="129"/>
-      <c r="G335" s="126"/>
-    </row>
-    <row r="336" s="16" customFormat="1" spans="1:7">
-      <c r="A336" s="130"/>
-      <c r="B336" s="129"/>
-      <c r="G336" s="126"/>
-    </row>
-    <row r="337" s="17" customFormat="1" spans="1:7">
-      <c r="A337" s="133" t="s">
-        <v>295</v>
-      </c>
-      <c r="B337" s="134"/>
-      <c r="G337" s="153" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="338" s="17" customFormat="1" spans="1:7">
-      <c r="A338" s="135"/>
-      <c r="B338" s="134"/>
-      <c r="G338" s="153" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="339" s="17" customFormat="1" spans="1:7">
-      <c r="A339" s="135"/>
-      <c r="B339" s="134"/>
-      <c r="G339" s="154"/>
-    </row>
-    <row r="340" s="17" customFormat="1" spans="1:7">
-      <c r="A340" s="135"/>
-      <c r="B340" s="134"/>
-      <c r="G340" s="154"/>
-    </row>
-    <row r="341" s="17" customFormat="1" spans="1:7">
-      <c r="A341" s="136"/>
-      <c r="B341" s="134"/>
-      <c r="G341" s="154"/>
-    </row>
-    <row r="342" s="18" customFormat="1" spans="1:7">
-      <c r="A342" s="137" t="s">
-        <v>298</v>
-      </c>
-      <c r="B342" s="138"/>
-      <c r="C342" s="139" t="s">
-        <v>299</v>
-      </c>
-      <c r="G342" s="155" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="343" s="18" customFormat="1" spans="1:7">
-      <c r="A343" s="140"/>
-      <c r="B343" s="138"/>
-      <c r="G343" s="155" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="344" s="18" customFormat="1" spans="1:7">
-      <c r="A344" s="140"/>
-      <c r="B344" s="138"/>
-      <c r="G344" s="156"/>
-    </row>
-    <row r="345" s="18" customFormat="1" spans="1:7">
-      <c r="A345" s="140"/>
-      <c r="B345" s="138"/>
-      <c r="G345" s="156"/>
-    </row>
-    <row r="346" s="18" customFormat="1" spans="1:7">
-      <c r="A346" s="141"/>
-      <c r="B346" s="138"/>
-      <c r="G346" s="156"/>
-    </row>
-    <row r="347" s="16" customFormat="1" spans="1:7">
-      <c r="A347" s="142" t="s">
-        <v>301</v>
-      </c>
-      <c r="B347" s="129"/>
-      <c r="G347" s="125" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="348" s="16" customFormat="1" spans="1:7">
-      <c r="A348" s="143"/>
-      <c r="B348" s="129"/>
-      <c r="G348" s="125" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="349" s="16" customFormat="1" spans="1:7">
-      <c r="A349" s="143"/>
-      <c r="B349" s="129"/>
-      <c r="G349" s="126"/>
-    </row>
-    <row r="350" s="16" customFormat="1" spans="1:7">
-      <c r="A350" s="143"/>
-      <c r="B350" s="129"/>
-      <c r="G350" s="126"/>
-    </row>
-    <row r="351" s="16" customFormat="1" spans="1:7">
-      <c r="A351" s="143"/>
-      <c r="B351" s="129"/>
-      <c r="G351" s="126"/>
-    </row>
-    <row r="352" s="16" customFormat="1" spans="1:7">
-      <c r="A352" s="144" t="s">
-        <v>304</v>
-      </c>
-      <c r="B352" s="129"/>
-      <c r="G352" s="126" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="353" s="16" customFormat="1" spans="1:7">
-      <c r="A353" s="130"/>
-      <c r="B353" s="129"/>
-      <c r="G353" s="125" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="354" s="16" customFormat="1" spans="1:7">
-      <c r="A354" s="130"/>
-      <c r="B354" s="129"/>
-      <c r="G354" s="126"/>
-    </row>
-    <row r="355" s="16" customFormat="1" spans="1:7">
-      <c r="A355" s="130"/>
-      <c r="B355" s="129"/>
-      <c r="G355" s="126"/>
-    </row>
-    <row r="356" s="16" customFormat="1" spans="1:7">
-      <c r="A356" s="131"/>
-      <c r="B356" s="129"/>
-      <c r="G356" s="126"/>
-    </row>
-    <row r="357" s="19" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A357" s="145" t="s">
-        <v>307</v>
-      </c>
-      <c r="G357" s="157" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="358" s="19" customFormat="1" spans="1:7">
-      <c r="A358" s="146"/>
-      <c r="G358" s="158" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="359" s="19" customFormat="1" spans="1:7">
-      <c r="A359" s="146"/>
-      <c r="G359" s="159"/>
-    </row>
-    <row r="360" s="19" customFormat="1" spans="1:7">
-      <c r="A360" s="146"/>
-      <c r="G360" s="159"/>
-    </row>
-    <row r="361" s="19" customFormat="1" spans="1:7">
-      <c r="A361" s="146"/>
-      <c r="G361" s="159"/>
-    </row>
-    <row r="362" s="15" customFormat="1" spans="1:7">
-      <c r="A362" s="107" t="s">
-        <v>310</v>
-      </c>
-      <c r="G362" s="121" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="363" s="15" customFormat="1" spans="1:7">
-      <c r="A363" s="108"/>
-      <c r="G363" s="122"/>
-    </row>
-    <row r="364" s="15" customFormat="1" spans="1:7">
-      <c r="A364" s="108"/>
-      <c r="G364" s="122"/>
-    </row>
-    <row r="365" s="15" customFormat="1" spans="1:7">
-      <c r="A365" s="108"/>
-      <c r="G365" s="122"/>
-    </row>
-    <row r="366" s="15" customFormat="1" spans="1:7">
-      <c r="A366" s="109"/>
-      <c r="G366" s="122"/>
-    </row>
-    <row r="367" s="6" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A367" s="147" t="s">
-        <v>312</v>
-      </c>
-      <c r="G367" s="59" t="s">
+    <row r="388" s="6" customFormat="1" spans="1:7">
+      <c r="A388" s="43"/>
+      <c r="G388" s="138" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="389" s="6" customFormat="1" spans="1:7">
+      <c r="A389" s="43"/>
+      <c r="G389" s="63"/>
+    </row>
+    <row r="390" s="6" customFormat="1" spans="1:7">
+      <c r="A390" s="43"/>
+      <c r="G390" s="63"/>
+    </row>
+    <row r="391" s="6" customFormat="1" spans="1:7">
+      <c r="A391" s="43"/>
+      <c r="G391" s="63"/>
+    </row>
+    <row r="392" s="21" customFormat="1" spans="1:7">
+      <c r="A392" s="175" t="s">
+        <v>339</v>
+      </c>
+      <c r="B392" s="176"/>
+      <c r="G392" s="183" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="393" s="21" customFormat="1" spans="1:7">
+      <c r="A393" s="177"/>
+      <c r="B393" s="176"/>
+      <c r="G393" s="183" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="394" s="21" customFormat="1" spans="1:7">
+      <c r="A394" s="177"/>
+      <c r="B394" s="176"/>
+      <c r="G394" s="184"/>
+    </row>
+    <row r="395" s="21" customFormat="1" spans="1:7">
+      <c r="A395" s="177"/>
+      <c r="B395" s="176"/>
+      <c r="G395" s="184"/>
+    </row>
+    <row r="396" s="21" customFormat="1" spans="1:7">
+      <c r="A396" s="177"/>
+      <c r="B396" s="176"/>
+      <c r="G396" s="184"/>
+    </row>
+    <row r="397" s="19" customFormat="1" spans="1:7">
+      <c r="A397" s="156" t="s">
+        <v>342</v>
+      </c>
+      <c r="G397" s="169" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="398" s="19" customFormat="1" spans="1:7">
+      <c r="A398" s="154"/>
+      <c r="G398" s="169" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="399" s="19" customFormat="1" spans="1:7">
+      <c r="A399" s="154"/>
+      <c r="G399" s="170"/>
+    </row>
+    <row r="400" s="19" customFormat="1" spans="1:7">
+      <c r="A400" s="154"/>
+      <c r="G400" s="170"/>
+    </row>
+    <row r="401" s="19" customFormat="1" spans="1:7">
+      <c r="A401" s="155"/>
+      <c r="G401" s="170"/>
+    </row>
+    <row r="402" s="2" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A402" s="178" t="s">
+        <v>345</v>
+      </c>
+      <c r="G402" s="54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="368" s="6" customFormat="1" spans="1:7">
-      <c r="A368" s="42"/>
-      <c r="G368" s="124" t="s">
+    <row r="403" s="2" customFormat="1" spans="1:7">
+      <c r="A403" s="27"/>
+      <c r="G403" s="146" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="404" s="2" customFormat="1" spans="1:7">
+      <c r="A404" s="27"/>
+      <c r="G404" s="53"/>
+    </row>
+    <row r="405" s="2" customFormat="1" spans="1:7">
+      <c r="A405" s="27"/>
+      <c r="G405" s="53"/>
+    </row>
+    <row r="406" s="2" customFormat="1" spans="1:7">
+      <c r="A406" s="27"/>
+      <c r="G406" s="53"/>
+    </row>
+    <row r="407" s="19" customFormat="1" spans="1:7">
+      <c r="A407" s="156" t="s">
+        <v>347</v>
+      </c>
+      <c r="G407" s="169" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="408" s="19" customFormat="1" spans="1:7">
+      <c r="A408" s="154"/>
+      <c r="G408" s="170"/>
+    </row>
+    <row r="409" s="19" customFormat="1" spans="1:7">
+      <c r="A409" s="154"/>
+      <c r="G409" s="170"/>
+    </row>
+    <row r="410" s="19" customFormat="1" spans="1:7">
+      <c r="A410" s="154"/>
+      <c r="G410" s="170"/>
+    </row>
+    <row r="411" s="19" customFormat="1" spans="1:7">
+      <c r="A411" s="154"/>
+      <c r="G411" s="170"/>
+    </row>
+    <row r="412" s="3" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A412" s="179" t="s">
+        <v>349</v>
+      </c>
+      <c r="B412" s="180"/>
+      <c r="G412" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="413" s="3" customFormat="1" spans="1:7">
+      <c r="A413" s="181"/>
+      <c r="B413" s="180"/>
+      <c r="G413" s="185" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="414" s="3" customFormat="1" spans="1:7">
+      <c r="A414" s="181"/>
+      <c r="B414" s="180"/>
+      <c r="G414" s="57"/>
+    </row>
+    <row r="415" s="3" customFormat="1" spans="1:7">
+      <c r="A415" s="181"/>
+      <c r="B415" s="180"/>
+      <c r="G415" s="57"/>
+    </row>
+    <row r="416" s="3" customFormat="1" spans="1:7">
+      <c r="A416" s="181"/>
+      <c r="B416" s="180"/>
+      <c r="G416" s="57"/>
+    </row>
+    <row r="417" s="19" customFormat="1" spans="1:7">
+      <c r="A417" s="153" t="s">
+        <v>351</v>
+      </c>
+      <c r="G417" s="169" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="418" s="19" customFormat="1" spans="1:7">
+      <c r="A418" s="154"/>
+      <c r="G418" s="170" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="419" s="19" customFormat="1" spans="1:7">
+      <c r="A419" s="154"/>
+      <c r="G419" s="170"/>
+    </row>
+    <row r="420" s="19" customFormat="1" spans="1:7">
+      <c r="A420" s="154"/>
+      <c r="G420" s="170"/>
+    </row>
+    <row r="421" s="19" customFormat="1" spans="1:7">
+      <c r="A421" s="154"/>
+      <c r="G421" s="170"/>
+    </row>
+    <row r="422" s="19" customFormat="1" spans="1:7">
+      <c r="A422" s="156" t="s">
+        <v>354</v>
+      </c>
+      <c r="G422" s="169" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="423" s="19" customFormat="1" spans="1:7">
+      <c r="A423" s="154"/>
+      <c r="G423" s="169" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="424" s="19" customFormat="1" spans="1:7">
+      <c r="A424" s="154"/>
+      <c r="G424" s="170"/>
+    </row>
+    <row r="425" s="19" customFormat="1" spans="1:7">
+      <c r="A425" s="154"/>
+      <c r="G425" s="170"/>
+    </row>
+    <row r="426" s="19" customFormat="1" spans="1:7">
+      <c r="A426" s="155"/>
+      <c r="G426" s="170"/>
+    </row>
+    <row r="427" s="19" customFormat="1" spans="1:7">
+      <c r="A427" s="156" t="s">
+        <v>357</v>
+      </c>
+      <c r="G427" s="169" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="428" s="19" customFormat="1" spans="1:7">
+      <c r="A428" s="154"/>
+      <c r="G428" s="169" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="429" s="19" customFormat="1" spans="1:7">
+      <c r="A429" s="154"/>
+      <c r="G429" s="170"/>
+    </row>
+    <row r="430" s="19" customFormat="1" spans="1:7">
+      <c r="A430" s="154"/>
+      <c r="G430" s="170"/>
+    </row>
+    <row r="431" s="19" customFormat="1" spans="1:7">
+      <c r="A431" s="155"/>
+      <c r="G431" s="170"/>
+    </row>
+    <row r="432" s="19" customFormat="1" spans="1:7">
+      <c r="A432" s="182" t="s">
+        <v>360</v>
+      </c>
+      <c r="G432" s="170" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="433" s="19" customFormat="1" spans="1:7">
+      <c r="A433" s="154"/>
+      <c r="G433" s="170" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="434" s="19" customFormat="1" spans="1:7">
+      <c r="A434" s="154"/>
+      <c r="G434" s="170"/>
+    </row>
+    <row r="435" s="19" customFormat="1" spans="1:7">
+      <c r="A435" s="154"/>
+      <c r="G435" s="170"/>
+    </row>
+    <row r="436" s="19" customFormat="1" spans="1:7">
+      <c r="A436" s="154"/>
+      <c r="G436" s="170"/>
+    </row>
+    <row r="437" s="19" customFormat="1" spans="1:7">
+      <c r="A437" s="156" t="s">
+        <v>363</v>
+      </c>
+      <c r="G437" s="169" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="438" s="19" customFormat="1" spans="1:7">
+      <c r="A438" s="154"/>
+      <c r="G438" s="169" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="439" s="19" customFormat="1" spans="1:7">
+      <c r="A439" s="154"/>
+      <c r="G439" s="170"/>
+    </row>
+    <row r="440" s="19" customFormat="1" spans="1:7">
+      <c r="A440" s="154"/>
+      <c r="G440" s="170"/>
+    </row>
+    <row r="441" s="19" customFormat="1" spans="1:7">
+      <c r="A441" s="155"/>
+      <c r="G441" s="170"/>
+    </row>
+    <row r="442" s="19" customFormat="1" spans="1:7">
+      <c r="A442" s="156" t="s">
+        <v>366</v>
+      </c>
+      <c r="G442" s="169" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="443" s="19" customFormat="1" spans="1:7">
+      <c r="A443" s="154"/>
+      <c r="G443" s="169" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="444" s="19" customFormat="1" spans="1:7">
+      <c r="A444" s="154"/>
+      <c r="G444" s="170"/>
+    </row>
+    <row r="445" s="19" customFormat="1" spans="1:7">
+      <c r="A445" s="154"/>
+      <c r="G445" s="170"/>
+    </row>
+    <row r="446" s="19" customFormat="1" spans="1:7">
+      <c r="A446" s="155"/>
+      <c r="G446" s="170"/>
+    </row>
+    <row r="447" s="19" customFormat="1" spans="1:7">
+      <c r="A447" s="182" t="s">
+        <v>368</v>
+      </c>
+      <c r="G447" s="170" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="448" s="19" customFormat="1" spans="1:7">
+      <c r="A448" s="154"/>
+      <c r="G448" s="170" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="449" s="19" customFormat="1" spans="1:7">
+      <c r="A449" s="154"/>
+      <c r="G449" s="170"/>
+    </row>
+    <row r="450" s="19" customFormat="1" spans="1:7">
+      <c r="A450" s="154"/>
+      <c r="G450" s="170"/>
+    </row>
+    <row r="451" s="19" customFormat="1" spans="1:7">
+      <c r="A451" s="154"/>
+      <c r="G451" s="170"/>
+    </row>
+    <row r="452" s="19" customFormat="1" spans="1:7">
+      <c r="A452" s="186" t="s">
+        <v>371</v>
+      </c>
+      <c r="B452" s="187"/>
+      <c r="G452" s="170" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="453" s="19" customFormat="1" spans="1:7">
+      <c r="A453" s="152"/>
+      <c r="B453" s="187"/>
+      <c r="G453" s="170" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="454" s="19" customFormat="1" spans="1:7">
+      <c r="A454" s="152"/>
+      <c r="B454" s="187"/>
+      <c r="G454" s="170"/>
+    </row>
+    <row r="455" s="19" customFormat="1" spans="1:7">
+      <c r="A455" s="152"/>
+      <c r="B455" s="187"/>
+      <c r="G455" s="170"/>
+    </row>
+    <row r="456" s="19" customFormat="1" spans="1:7">
+      <c r="A456" s="152"/>
+      <c r="B456" s="187"/>
+      <c r="G456" s="170"/>
+    </row>
+    <row r="457" s="19" customFormat="1" spans="1:7">
+      <c r="A457" s="186" t="s">
+        <v>374</v>
+      </c>
+      <c r="B457" s="187"/>
+      <c r="G457" s="170" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="458" s="19" customFormat="1" spans="1:7">
+      <c r="A458" s="152"/>
+      <c r="B458" s="187"/>
+      <c r="G458" s="170" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="459" s="19" customFormat="1" spans="1:7">
+      <c r="A459" s="152"/>
+      <c r="B459" s="187"/>
+      <c r="G459" s="170"/>
+    </row>
+    <row r="460" s="19" customFormat="1" spans="1:7">
+      <c r="A460" s="152"/>
+      <c r="B460" s="187"/>
+      <c r="G460" s="170"/>
+    </row>
+    <row r="461" s="19" customFormat="1" spans="1:7">
+      <c r="A461" s="152"/>
+      <c r="B461" s="187"/>
+      <c r="G461" s="170"/>
+    </row>
+    <row r="462" s="19" customFormat="1" spans="1:7">
+      <c r="A462" s="186" t="s">
+        <v>377</v>
+      </c>
+      <c r="B462" s="187"/>
+      <c r="G462" s="170" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="463" s="19" customFormat="1" spans="1:7">
+      <c r="A463" s="152"/>
+      <c r="B463" s="187"/>
+      <c r="G463" s="170"/>
+    </row>
+    <row r="464" s="19" customFormat="1" spans="1:7">
+      <c r="A464" s="152"/>
+      <c r="B464" s="187"/>
+      <c r="G464" s="170"/>
+    </row>
+    <row r="465" s="19" customFormat="1" spans="1:7">
+      <c r="A465" s="152"/>
+      <c r="B465" s="187"/>
+      <c r="G465" s="170"/>
+    </row>
+    <row r="466" s="19" customFormat="1" spans="1:7">
+      <c r="A466" s="152"/>
+      <c r="B466" s="187"/>
+      <c r="G466" s="170"/>
+    </row>
+    <row r="467" s="19" customFormat="1" spans="1:7">
+      <c r="A467" s="186" t="s">
+        <v>379</v>
+      </c>
+      <c r="B467" s="187"/>
+      <c r="G467" s="170"/>
+    </row>
+    <row r="468" s="19" customFormat="1" spans="1:7">
+      <c r="A468" s="152"/>
+      <c r="B468" s="187"/>
+      <c r="G468" s="170"/>
+    </row>
+    <row r="469" s="19" customFormat="1" spans="1:7">
+      <c r="A469" s="152"/>
+      <c r="B469" s="187"/>
+      <c r="G469" s="170"/>
+    </row>
+    <row r="470" s="19" customFormat="1" spans="1:7">
+      <c r="A470" s="152"/>
+      <c r="B470" s="187"/>
+      <c r="G470" s="170"/>
+    </row>
+    <row r="471" s="19" customFormat="1" spans="1:7">
+      <c r="A471" s="152"/>
+      <c r="B471" s="187"/>
+      <c r="G471" s="170"/>
+    </row>
+    <row r="472" s="19" customFormat="1" spans="1:7">
+      <c r="A472" s="150" t="s">
+        <v>380</v>
+      </c>
+      <c r="B472" s="187" t="s">
+        <v>381</v>
+      </c>
+      <c r="C472" s="19"/>
+      <c r="D472" s="19"/>
+      <c r="E472" s="19"/>
+      <c r="F472" s="19"/>
+      <c r="G472" s="170" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="473" s="19" customFormat="1" spans="1:7">
+      <c r="A473" s="152"/>
+      <c r="B473" s="187" t="s">
+        <v>383</v>
+      </c>
+      <c r="C473" s="19"/>
+      <c r="D473" s="19"/>
+      <c r="E473" s="19"/>
+      <c r="F473" s="19"/>
+      <c r="G473" s="170" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="474" s="19" customFormat="1" spans="1:7">
+      <c r="A474" s="152"/>
+      <c r="B474" s="187"/>
+      <c r="G474" s="170"/>
+    </row>
+    <row r="475" s="19" customFormat="1" spans="1:7">
+      <c r="A475" s="152"/>
+      <c r="B475" s="187"/>
+      <c r="G475" s="170"/>
+    </row>
+    <row r="476" s="19" customFormat="1" spans="1:7">
+      <c r="A476" s="152"/>
+      <c r="B476" s="187"/>
+      <c r="G476" s="170"/>
+    </row>
+    <row r="477" s="19" customFormat="1" spans="1:7">
+      <c r="A477" s="160" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="369" s="6" customFormat="1" spans="1:7">
-      <c r="A369" s="42"/>
-      <c r="G369" s="60"/>
-    </row>
-    <row r="370" s="6" customFormat="1" spans="1:7">
-      <c r="A370" s="42"/>
-      <c r="G370" s="60"/>
-    </row>
-    <row r="371" s="6" customFormat="1" spans="1:7">
-      <c r="A371" s="42"/>
-      <c r="G371" s="60"/>
-    </row>
-    <row r="372" s="20" customFormat="1" spans="1:7">
-      <c r="A372" s="148" t="s">
-        <v>314</v>
-      </c>
-      <c r="B372" s="149"/>
-      <c r="G372" s="160" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="373" s="20" customFormat="1" spans="1:7">
-      <c r="A373" s="150"/>
-      <c r="B373" s="149"/>
-      <c r="G373" s="160" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="374" s="20" customFormat="1" spans="1:7">
-      <c r="A374" s="150"/>
-      <c r="B374" s="149"/>
-      <c r="G374" s="161"/>
-    </row>
-    <row r="375" s="20" customFormat="1" spans="1:7">
-      <c r="A375" s="150"/>
-      <c r="B375" s="149"/>
-      <c r="G375" s="161"/>
-    </row>
-    <row r="376" s="20" customFormat="1" spans="1:7">
-      <c r="A376" s="150"/>
-      <c r="B376" s="149"/>
-      <c r="G376" s="161"/>
-    </row>
-    <row r="377" s="15" customFormat="1" spans="1:7">
-      <c r="A377" s="107" t="s">
-        <v>317</v>
-      </c>
-      <c r="G377" s="121" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="378" s="15" customFormat="1" spans="1:7">
-      <c r="A378" s="108"/>
-      <c r="G378" s="121" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="379" s="15" customFormat="1" spans="1:7">
-      <c r="A379" s="108"/>
-      <c r="G379" s="122"/>
-    </row>
-    <row r="380" s="15" customFormat="1" spans="1:7">
-      <c r="A380" s="108"/>
-      <c r="G380" s="122"/>
-    </row>
-    <row r="381" s="15" customFormat="1" spans="1:7">
-      <c r="A381" s="109"/>
-      <c r="G381" s="122"/>
-    </row>
-    <row r="382" s="2" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A382" s="151" t="s">
-        <v>320</v>
-      </c>
-      <c r="G382" s="51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="383" s="2" customFormat="1" spans="1:7">
-      <c r="A383" s="26"/>
-      <c r="G383" s="162" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="384" s="2" customFormat="1" spans="1:7">
-      <c r="A384" s="26"/>
-      <c r="G384" s="50"/>
-    </row>
-    <row r="385" s="2" customFormat="1" spans="1:7">
-      <c r="A385" s="26"/>
-      <c r="G385" s="50"/>
-    </row>
-    <row r="386" s="2" customFormat="1" spans="1:7">
-      <c r="A386" s="26"/>
-      <c r="G386" s="50"/>
-    </row>
-    <row r="387" s="15" customFormat="1" spans="1:7">
-      <c r="A387" s="107" t="s">
-        <v>322</v>
-      </c>
-      <c r="G387" s="121" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="388" s="15" customFormat="1" spans="1:7">
-      <c r="A388" s="108"/>
-      <c r="G388" s="122"/>
-    </row>
-    <row r="389" s="15" customFormat="1" spans="1:7">
-      <c r="A389" s="108"/>
-      <c r="G389" s="122"/>
-    </row>
-    <row r="390" s="15" customFormat="1" spans="1:7">
-      <c r="A390" s="108"/>
-      <c r="G390" s="122"/>
-    </row>
-    <row r="391" s="15" customFormat="1" spans="1:7">
-      <c r="A391" s="108"/>
-      <c r="G391" s="122"/>
-    </row>
-    <row r="392" s="3" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A392" s="163" t="s">
-        <v>324</v>
-      </c>
-      <c r="B392" s="164"/>
-      <c r="G392" s="53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="393" s="3" customFormat="1" spans="1:7">
-      <c r="A393" s="165"/>
-      <c r="B393" s="164"/>
-      <c r="G393" s="170" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="394" s="3" customFormat="1" spans="1:7">
-      <c r="A394" s="165"/>
-      <c r="B394" s="164"/>
-      <c r="G394" s="54"/>
-    </row>
-    <row r="395" s="3" customFormat="1" spans="1:7">
-      <c r="A395" s="165"/>
-      <c r="B395" s="164"/>
-      <c r="G395" s="54"/>
-    </row>
-    <row r="396" s="3" customFormat="1" spans="1:7">
-      <c r="A396" s="165"/>
-      <c r="B396" s="164"/>
-      <c r="G396" s="54"/>
-    </row>
-    <row r="397" s="15" customFormat="1" spans="1:7">
-      <c r="A397" s="166" t="s">
-        <v>326</v>
-      </c>
-      <c r="G397" s="121" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="398" s="15" customFormat="1" spans="1:7">
-      <c r="A398" s="108"/>
-      <c r="G398" s="122" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="399" s="15" customFormat="1" spans="1:7">
-      <c r="A399" s="108"/>
-      <c r="G399" s="122"/>
-    </row>
-    <row r="400" s="15" customFormat="1" spans="1:7">
-      <c r="A400" s="108"/>
-      <c r="G400" s="122"/>
-    </row>
-    <row r="401" s="15" customFormat="1" spans="1:7">
-      <c r="A401" s="108"/>
-      <c r="G401" s="122"/>
-    </row>
-    <row r="402" s="15" customFormat="1" spans="1:7">
-      <c r="A402" s="107" t="s">
-        <v>329</v>
-      </c>
-      <c r="G402" s="121" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="403" s="15" customFormat="1" spans="1:7">
-      <c r="A403" s="108"/>
-      <c r="G403" s="121" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="404" s="15" customFormat="1" spans="1:7">
-      <c r="A404" s="108"/>
-      <c r="G404" s="122"/>
-    </row>
-    <row r="405" s="15" customFormat="1" spans="1:7">
-      <c r="A405" s="108"/>
-      <c r="G405" s="122"/>
-    </row>
-    <row r="406" s="15" customFormat="1" spans="1:7">
-      <c r="A406" s="109"/>
-      <c r="G406" s="122"/>
-    </row>
-    <row r="407" s="15" customFormat="1" spans="1:7">
-      <c r="A407" s="107" t="s">
-        <v>332</v>
-      </c>
-      <c r="G407" s="121" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="408" s="15" customFormat="1" spans="1:7">
-      <c r="A408" s="108"/>
-      <c r="G408" s="121" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="409" s="15" customFormat="1" spans="1:7">
-      <c r="A409" s="108"/>
-      <c r="G409" s="122"/>
-    </row>
-    <row r="410" s="15" customFormat="1" spans="1:7">
-      <c r="A410" s="108"/>
-      <c r="G410" s="122"/>
-    </row>
-    <row r="411" s="15" customFormat="1" spans="1:7">
-      <c r="A411" s="109"/>
-      <c r="G411" s="122"/>
-    </row>
-    <row r="412" s="15" customFormat="1" spans="1:7">
-      <c r="A412" s="167" t="s">
-        <v>335</v>
-      </c>
-      <c r="G412" s="122" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="413" s="15" customFormat="1" spans="1:7">
-      <c r="A413" s="108"/>
-      <c r="G413" s="122" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="414" s="15" customFormat="1" spans="1:7">
-      <c r="A414" s="108"/>
-      <c r="G414" s="122"/>
-    </row>
-    <row r="415" s="15" customFormat="1" spans="1:7">
-      <c r="A415" s="108"/>
-      <c r="G415" s="122"/>
-    </row>
-    <row r="416" s="15" customFormat="1" spans="1:7">
-      <c r="A416" s="108"/>
-      <c r="G416" s="122"/>
-    </row>
-    <row r="417" s="15" customFormat="1" spans="1:7">
-      <c r="A417" s="107" t="s">
-        <v>338</v>
-      </c>
-      <c r="G417" s="121" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="418" s="15" customFormat="1" spans="1:7">
-      <c r="A418" s="108"/>
-      <c r="G418" s="121" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="419" s="15" customFormat="1" spans="1:7">
-      <c r="A419" s="108"/>
-      <c r="G419" s="122"/>
-    </row>
-    <row r="420" s="15" customFormat="1" spans="1:7">
-      <c r="A420" s="108"/>
-      <c r="G420" s="122"/>
-    </row>
-    <row r="421" s="15" customFormat="1" spans="1:7">
-      <c r="A421" s="109"/>
-      <c r="G421" s="122"/>
-    </row>
-    <row r="422" s="15" customFormat="1" spans="1:7">
-      <c r="A422" s="107" t="s">
-        <v>341</v>
-      </c>
-      <c r="G422" s="121" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="423" s="15" customFormat="1" spans="1:7">
-      <c r="A423" s="108"/>
-      <c r="G423" s="121" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="424" s="15" customFormat="1" spans="1:7">
-      <c r="A424" s="108"/>
-      <c r="G424" s="122"/>
-    </row>
-    <row r="425" s="15" customFormat="1" spans="1:7">
-      <c r="A425" s="108"/>
-      <c r="G425" s="122"/>
-    </row>
-    <row r="426" s="15" customFormat="1" spans="1:7">
-      <c r="A426" s="109"/>
-      <c r="G426" s="122"/>
-    </row>
-    <row r="427" s="15" customFormat="1" spans="1:7">
-      <c r="A427" s="167" t="s">
-        <v>343</v>
-      </c>
-      <c r="G427" s="122" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="428" s="15" customFormat="1" spans="1:7">
-      <c r="A428" s="108"/>
-      <c r="G428" s="122" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="429" s="15" customFormat="1" spans="1:7">
-      <c r="A429" s="108"/>
-      <c r="G429" s="122"/>
-    </row>
-    <row r="430" s="15" customFormat="1" spans="1:7">
-      <c r="A430" s="108"/>
-      <c r="G430" s="122"/>
-    </row>
-    <row r="431" s="15" customFormat="1" spans="1:7">
-      <c r="A431" s="108"/>
-      <c r="G431" s="122"/>
-    </row>
-    <row r="432" s="15" customFormat="1" spans="1:7">
-      <c r="A432" s="168" t="s">
-        <v>346</v>
-      </c>
-      <c r="B432" s="169"/>
-      <c r="G432" s="122" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="433" s="15" customFormat="1" spans="1:7">
-      <c r="A433" s="143"/>
-      <c r="B433" s="169"/>
-      <c r="G433" s="122" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="434" s="15" customFormat="1" spans="1:7">
-      <c r="A434" s="143"/>
-      <c r="B434" s="169"/>
-      <c r="G434" s="122"/>
-    </row>
-    <row r="435" s="15" customFormat="1" spans="1:7">
-      <c r="A435" s="143"/>
-      <c r="B435" s="169"/>
-      <c r="G435" s="122"/>
-    </row>
-    <row r="436" s="15" customFormat="1" spans="1:7">
-      <c r="A436" s="143"/>
-      <c r="B436" s="169"/>
-      <c r="G436" s="122"/>
-    </row>
-    <row r="437" s="15" customFormat="1" spans="1:7">
-      <c r="A437" s="168" t="s">
-        <v>349</v>
-      </c>
-      <c r="B437" s="169"/>
-      <c r="G437" s="122" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="438" s="15" customFormat="1" spans="1:7">
-      <c r="A438" s="143"/>
-      <c r="B438" s="169"/>
-      <c r="G438" s="122" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="439" s="15" customFormat="1" spans="1:7">
-      <c r="A439" s="143"/>
-      <c r="B439" s="169"/>
-      <c r="G439" s="122"/>
-    </row>
-    <row r="440" s="15" customFormat="1" spans="1:7">
-      <c r="A440" s="143"/>
-      <c r="B440" s="169"/>
-      <c r="G440" s="122"/>
-    </row>
-    <row r="441" s="15" customFormat="1" spans="1:7">
-      <c r="A441" s="143"/>
-      <c r="B441" s="169"/>
-      <c r="G441" s="122"/>
-    </row>
-    <row r="442" s="15" customFormat="1" spans="1:7">
-      <c r="A442" s="168" t="s">
-        <v>352</v>
-      </c>
-      <c r="B442" s="169"/>
-      <c r="G442" s="122" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="443" s="15" customFormat="1" spans="1:7">
-      <c r="A443" s="143"/>
-      <c r="B443" s="169"/>
-      <c r="G443" s="122"/>
-    </row>
-    <row r="444" s="15" customFormat="1" spans="1:7">
-      <c r="A444" s="143"/>
-      <c r="B444" s="169"/>
-      <c r="G444" s="122"/>
-    </row>
-    <row r="445" s="15" customFormat="1" spans="1:7">
-      <c r="A445" s="143"/>
-      <c r="B445" s="169"/>
-      <c r="G445" s="122"/>
-    </row>
-    <row r="446" s="15" customFormat="1" spans="1:7">
-      <c r="A446" s="143"/>
-      <c r="B446" s="169"/>
-      <c r="G446" s="122"/>
-    </row>
-    <row r="447" s="15" customFormat="1" spans="1:7">
-      <c r="A447" s="168" t="s">
-        <v>354</v>
-      </c>
-      <c r="B447" s="169"/>
-      <c r="G447" s="122"/>
-    </row>
-    <row r="448" s="15" customFormat="1" spans="1:7">
-      <c r="A448" s="143"/>
-      <c r="B448" s="169"/>
-      <c r="G448" s="122"/>
-    </row>
-    <row r="449" s="15" customFormat="1" spans="1:7">
-      <c r="A449" s="143"/>
-      <c r="B449" s="169"/>
-      <c r="G449" s="122"/>
-    </row>
-    <row r="450" s="15" customFormat="1" spans="1:7">
-      <c r="A450" s="143"/>
-      <c r="B450" s="169"/>
-      <c r="G450" s="122"/>
-    </row>
-    <row r="451" s="15" customFormat="1" spans="1:7">
-      <c r="A451" s="143"/>
-      <c r="B451" s="169"/>
-      <c r="G451" s="122"/>
-    </row>
-    <row r="452" s="15" customFormat="1" spans="1:7">
-      <c r="A452" s="142" t="s">
-        <v>355</v>
-      </c>
-      <c r="B452" s="169" t="s">
-        <v>356</v>
-      </c>
-      <c r="C452" s="15"/>
-      <c r="D452" s="15"/>
-      <c r="E452" s="15"/>
-      <c r="F452" s="15"/>
-      <c r="G452" s="122" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="453" s="15" customFormat="1" spans="1:7">
-      <c r="A453" s="143"/>
-      <c r="B453" s="169" t="s">
-        <v>358</v>
-      </c>
-      <c r="C453" s="15"/>
-      <c r="D453" s="15"/>
-      <c r="E453" s="15"/>
-      <c r="F453" s="15"/>
-      <c r="G453" s="122" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="454" s="15" customFormat="1" spans="1:7">
-      <c r="A454" s="143"/>
-      <c r="B454" s="169"/>
-      <c r="G454" s="122"/>
-    </row>
-    <row r="455" s="15" customFormat="1" spans="1:7">
-      <c r="A455" s="143"/>
-      <c r="B455" s="169"/>
-      <c r="G455" s="122"/>
-    </row>
-    <row r="456" s="15" customFormat="1" spans="1:7">
-      <c r="A456" s="143"/>
-      <c r="B456" s="169"/>
-      <c r="G456" s="122"/>
-    </row>
-    <row r="457" s="15" customFormat="1" spans="1:7">
-      <c r="A457" s="166" t="s">
-        <v>360</v>
-      </c>
-      <c r="G457" s="121" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="458" s="15" customFormat="1" spans="1:7">
-      <c r="A458" s="108"/>
-      <c r="G458" s="121" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="459" s="15" customFormat="1" spans="1:7">
-      <c r="A459" s="108"/>
-      <c r="G459" s="122"/>
-    </row>
-    <row r="460" s="15" customFormat="1" spans="1:7">
-      <c r="A460" s="108"/>
-      <c r="G460" s="122"/>
-    </row>
-    <row r="461" s="15" customFormat="1" spans="1:7">
-      <c r="A461" s="109"/>
-      <c r="G461" s="122"/>
-    </row>
-    <row r="462" ht="66" spans="1:7">
-      <c r="A462" s="107" t="s">
-        <v>363</v>
-      </c>
-      <c r="G462" s="174" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" s="108"/>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" s="108"/>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" s="108"/>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466" s="109"/>
-    </row>
-    <row r="467" spans="1:7">
-      <c r="A467" s="171" t="s">
-        <v>365</v>
-      </c>
-      <c r="G467" s="175" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="468" ht="33" spans="1:7">
-      <c r="A468" s="172"/>
-      <c r="G468" s="175" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7">
-      <c r="A469" s="172"/>
-      <c r="G469" s="176" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470" s="172"/>
-    </row>
-    <row r="471" spans="1:1">
-      <c r="A471" s="173"/>
+      <c r="B477" s="187"/>
+      <c r="G477" s="169" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="478" s="19" customFormat="1" spans="1:7">
+      <c r="A478" s="162"/>
+      <c r="B478" s="187"/>
+      <c r="G478" s="169" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="479" s="19" customFormat="1" spans="1:7">
+      <c r="A479" s="162"/>
+      <c r="B479" s="187"/>
+      <c r="G479" s="170"/>
+    </row>
+    <row r="480" s="19" customFormat="1" spans="1:7">
+      <c r="A480" s="162"/>
+      <c r="B480" s="187"/>
+      <c r="G480" s="170"/>
+    </row>
+    <row r="481" s="19" customFormat="1" spans="1:7">
+      <c r="A481" s="163"/>
+      <c r="B481" s="187"/>
+      <c r="G481" s="170"/>
+    </row>
+    <row r="482" s="19" customFormat="1" spans="1:7">
+      <c r="A482" s="153" t="s">
+        <v>387</v>
+      </c>
+      <c r="G482" s="169" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="483" s="19" customFormat="1" spans="1:7">
+      <c r="A483" s="154"/>
+      <c r="G483" s="169" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="484" s="19" customFormat="1" spans="1:7">
+      <c r="A484" s="154"/>
+      <c r="G484" s="170"/>
+    </row>
+    <row r="485" s="19" customFormat="1" spans="1:7">
+      <c r="A485" s="154"/>
+      <c r="G485" s="170"/>
+    </row>
+    <row r="486" s="19" customFormat="1" spans="1:7">
+      <c r="A486" s="155"/>
+      <c r="G486" s="170"/>
+    </row>
+    <row r="487" ht="66" spans="1:7">
+      <c r="A487" s="156" t="s">
+        <v>390</v>
+      </c>
+      <c r="G487" s="191" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="154"/>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="154"/>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="154"/>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="155"/>
+    </row>
+    <row r="492" spans="1:7">
+      <c r="A492" s="188" t="s">
+        <v>392</v>
+      </c>
+      <c r="G492" s="192" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="493" ht="33" spans="1:7">
+      <c r="A493" s="189"/>
+      <c r="G493" s="192" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
+      <c r="A494" s="189"/>
+      <c r="G494" s="193"/>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="189"/>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="190"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <mergeCells count="95">
+  <mergeCells count="99">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -7363,7 +7855,6 @@
     <mergeCell ref="A332:A336"/>
     <mergeCell ref="A337:A341"/>
     <mergeCell ref="A342:A346"/>
-    <mergeCell ref="A347:A351"/>
     <mergeCell ref="A352:A356"/>
     <mergeCell ref="A357:A361"/>
     <mergeCell ref="A362:A366"/>
@@ -7388,6 +7879,11 @@
     <mergeCell ref="A457:A461"/>
     <mergeCell ref="A462:A466"/>
     <mergeCell ref="A467:A471"/>
+    <mergeCell ref="A472:A476"/>
+    <mergeCell ref="A477:A481"/>
+    <mergeCell ref="A482:A486"/>
+    <mergeCell ref="A487:A491"/>
+    <mergeCell ref="A492:A496"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E247" r:id="rId1" display="来歆余响" tooltip="https://genshin.honeyhunterworld.com/db/art/family/a_15024/?lang=CHS"/>
